--- a/resources/btc-mfi.xlsx
+++ b/resources/btc-mfi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomsr\Documents\Code\production\pypi\rolling-ta\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4CA1A69-882C-4FA6-849B-3520DA223005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{414268A6-1CD5-48B7-858F-F4FAA2887BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4995" yWindow="240" windowWidth="16410" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -370,7 +370,7 @@
   <dimension ref="A1:L200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L1048576"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -403,6 +403,21 @@
         <f>E1*F1</f>
         <v>232384.92760560001</v>
       </c>
+      <c r="H1">
+        <v>0</v>
+      </c>
+      <c r="I1">
+        <v>0</v>
+      </c>
+      <c r="J1">
+        <v>0</v>
+      </c>
+      <c r="K1">
+        <v>0</v>
+      </c>
+      <c r="L1">
+        <v>0</v>
+      </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -429,12 +444,21 @@
         <v>24805.232345500001</v>
       </c>
       <c r="H2">
-        <f>IF(E2&gt;E1,F2,0)</f>
+        <f>IF(E2&gt;E1,G2,0)</f>
         <v>0</v>
       </c>
       <c r="I2">
-        <f>IF(E2&lt;E1,F2,0)</f>
-        <v>1.8623945</v>
+        <f>IF(E2&lt;E1,G2,0)</f>
+        <v>24805.232345500001</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -462,11 +486,20 @@
         <v>202832.88593883332</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H66" si="2">IF(E3&gt;E2,F3,0)</f>
-        <v>15.199356999999999</v>
+        <f t="shared" ref="H3:H66" si="2">IF(E3&gt;E2,G3,0)</f>
+        <v>202832.88593883332</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I66" si="3">IF(E3&lt;E2,F3,0)</f>
+        <f t="shared" ref="I3:I66" si="3">IF(E3&lt;E2,G3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
         <v>0</v>
       </c>
     </row>
@@ -496,10 +529,19 @@
       </c>
       <c r="H4">
         <f t="shared" si="2"/>
-        <v>2.8479569900000001</v>
+        <v>38009.688375636993</v>
       </c>
       <c r="I4">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
         <v>0</v>
       </c>
     </row>
@@ -535,6 +577,15 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -566,7 +617,16 @@
       </c>
       <c r="I6">
         <f t="shared" si="3"/>
-        <v>15.440751000000001</v>
+        <v>205326.47457269998</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -599,7 +659,16 @@
       </c>
       <c r="I7">
         <f t="shared" si="3"/>
-        <v>9.4187515000000008</v>
+        <v>124997.19303165001</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -632,7 +701,16 @@
       </c>
       <c r="I8">
         <f t="shared" si="3"/>
-        <v>6.4076024900000004</v>
+        <v>84868.267806550677</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -661,10 +739,19 @@
       </c>
       <c r="H9">
         <f t="shared" si="2"/>
-        <v>5.4299099999999996</v>
+        <v>72137.259334999995</v>
       </c>
       <c r="I9">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
         <v>0</v>
       </c>
     </row>
@@ -694,10 +781,19 @@
       </c>
       <c r="H10">
         <f t="shared" si="2"/>
-        <v>3.6676689900000001</v>
+        <v>48731.951103231004</v>
       </c>
       <c r="I10">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
         <v>0</v>
       </c>
     </row>
@@ -731,7 +827,16 @@
       </c>
       <c r="I11">
         <f t="shared" si="3"/>
-        <v>8.1689404900000007</v>
+        <v>108509.12572073535</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -760,10 +865,19 @@
       </c>
       <c r="H12">
         <f t="shared" si="2"/>
-        <v>3.3337994900000001</v>
+        <v>44440.436214897338</v>
       </c>
       <c r="I12">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
         <v>0</v>
       </c>
     </row>
@@ -793,10 +907,19 @@
       </c>
       <c r="H13">
         <f t="shared" si="2"/>
-        <v>10.53634299</v>
+        <v>140701.97307702701</v>
       </c>
       <c r="I13">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
         <v>0</v>
       </c>
     </row>
@@ -830,7 +953,16 @@
       </c>
       <c r="I14">
         <f t="shared" si="3"/>
-        <v>7.4867729900000004</v>
+        <v>99793.942333806335</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -863,19 +995,19 @@
       </c>
       <c r="I15">
         <f t="shared" si="3"/>
-        <v>1.9364419900000001</v>
+        <v>25789.211682488334</v>
       </c>
       <c r="J15">
         <f>SUM(H2:H15)</f>
-        <v>41.01503546</v>
+        <v>546854.19404462562</v>
       </c>
       <c r="K15">
         <f>SUM(I2:I15)</f>
-        <v>50.721654959999995</v>
+        <v>674089.44749343058</v>
       </c>
       <c r="L15">
-        <f>(100 * J15) / ( J15 + K15 )</f>
-        <v>44.70952164528719</v>
+        <f t="shared" ref="L15:L46" si="4">(100 * J15) / ( J15 + K15 )</f>
+        <v>44.789470655315299</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -904,7 +1036,7 @@
       </c>
       <c r="H16">
         <f t="shared" si="2"/>
-        <v>5.2026169900000001</v>
+        <v>69310.997746443332</v>
       </c>
       <c r="I16">
         <f t="shared" si="3"/>
@@ -912,15 +1044,15 @@
       </c>
       <c r="J16">
         <f>SUM(H3:H16)</f>
-        <v>46.217652450000003</v>
+        <v>616165.191791069</v>
       </c>
       <c r="K16">
-        <f t="shared" ref="K16:K79" si="4">SUM(I3:I16)</f>
-        <v>48.859260460000002</v>
+        <f t="shared" ref="K16:K79" si="5">SUM(I3:I16)</f>
+        <v>649284.21514793066</v>
       </c>
       <c r="L16">
-        <f>(100 * J16) / ( J16 + K16 )</f>
-        <v>48.610804700558305</v>
+        <f t="shared" si="4"/>
+        <v>48.69141258531333</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -953,19 +1085,19 @@
       </c>
       <c r="I17">
         <f t="shared" si="3"/>
-        <v>1.8909179899999999</v>
+        <v>25190.998554579</v>
       </c>
       <c r="J17">
         <f>SUM(H4:H17)</f>
-        <v>31.01829545</v>
+        <v>413332.3058522357</v>
       </c>
       <c r="K17">
+        <f t="shared" si="5"/>
+        <v>674475.21370250965</v>
+      </c>
+      <c r="L17">
         <f t="shared" si="4"/>
-        <v>50.75017845</v>
-      </c>
-      <c r="L17">
-        <f>(100 * J17) / ( J17 + K17 )</f>
-        <v>37.934296643391306</v>
+        <v>37.996823741521688</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -994,23 +1126,23 @@
       </c>
       <c r="H18">
         <f t="shared" si="2"/>
-        <v>1.8551814900000001</v>
+        <v>24735.938718149002</v>
       </c>
       <c r="I18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J18">
-        <f t="shared" ref="J18:J79" si="5">SUM(H5:H18)</f>
-        <v>30.02551995</v>
+        <f t="shared" ref="J18:J79" si="6">SUM(H5:H18)</f>
+        <v>400058.55619474768</v>
       </c>
       <c r="K18">
+        <f t="shared" si="5"/>
+        <v>674475.21370250965</v>
+      </c>
+      <c r="L18">
         <f t="shared" si="4"/>
-        <v>50.75017845</v>
-      </c>
-      <c r="L18">
-        <f>(100 * J18) / ( J18 + K18 )</f>
-        <v>37.171476749497224</v>
+        <v>37.230896543437595</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1043,19 +1175,19 @@
       </c>
       <c r="I19">
         <f t="shared" si="3"/>
-        <v>5.07042649</v>
+        <v>67459.827264637657</v>
       </c>
       <c r="J19">
+        <f t="shared" si="6"/>
+        <v>400058.55619474768</v>
+      </c>
+      <c r="K19">
         <f t="shared" si="5"/>
-        <v>30.02551995</v>
-      </c>
-      <c r="K19">
+        <v>741935.04096714733</v>
+      </c>
+      <c r="L19">
         <f t="shared" si="4"/>
-        <v>55.820604940000003</v>
-      </c>
-      <c r="L19">
-        <f>(100 * J19) / ( J19 + K19 )</f>
-        <v>34.975975896959326</v>
+        <v>35.031593626179784</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1088,19 +1220,19 @@
       </c>
       <c r="I20">
         <f t="shared" si="3"/>
-        <v>5.2603065000000004</v>
+        <v>69920.520028650004</v>
       </c>
       <c r="J20">
+        <f t="shared" si="6"/>
+        <v>400058.55619474768</v>
+      </c>
+      <c r="K20">
         <f t="shared" si="5"/>
-        <v>30.02551995</v>
-      </c>
-      <c r="K20">
+        <v>606529.08642309741</v>
+      </c>
+      <c r="L20">
         <f t="shared" si="4"/>
-        <v>45.640160440000002</v>
-      </c>
-      <c r="L20">
-        <f>(100 * J20) / ( J20 + K20 )</f>
-        <v>39.681821131113729</v>
+        <v>39.744036113369162</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1136,16 +1268,16 @@
         <v>0</v>
       </c>
       <c r="J21">
+        <f t="shared" si="6"/>
+        <v>400058.55619474768</v>
+      </c>
+      <c r="K21">
         <f t="shared" si="5"/>
-        <v>30.02551995</v>
-      </c>
-      <c r="K21">
+        <v>481531.89339144732</v>
+      </c>
+      <c r="L21">
         <f t="shared" si="4"/>
-        <v>36.221408939999996</v>
-      </c>
-      <c r="L21">
-        <f>(100 * J21) / ( J21 + K21 )</f>
-        <v>45.323640586956124</v>
+        <v>45.379184448122032</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1178,19 +1310,19 @@
       </c>
       <c r="I22">
         <f t="shared" si="3"/>
-        <v>8.3955079900000005</v>
+        <v>111315.76058914367</v>
       </c>
       <c r="J22">
+        <f t="shared" si="6"/>
+        <v>400058.55619474768</v>
+      </c>
+      <c r="K22">
         <f t="shared" si="5"/>
-        <v>30.02551995</v>
-      </c>
-      <c r="K22">
+        <v>507979.38617404038</v>
+      </c>
+      <c r="L22">
         <f t="shared" si="4"/>
-        <v>38.20931444</v>
-      </c>
-      <c r="L22">
-        <f>(100 * J22) / ( J22 + K22 )</f>
-        <v>44.003213634823915</v>
+        <v>44.057471337719605</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -1223,19 +1355,19 @@
       </c>
       <c r="I23">
         <f t="shared" si="3"/>
-        <v>4.7109315</v>
+        <v>62199.527811849992</v>
       </c>
       <c r="J23">
+        <f t="shared" si="6"/>
+        <v>327921.29685974773</v>
+      </c>
+      <c r="K23">
         <f t="shared" si="5"/>
-        <v>24.59560995</v>
-      </c>
-      <c r="K23">
+        <v>570178.91398589034</v>
+      </c>
+      <c r="L23">
         <f t="shared" si="4"/>
-        <v>42.920245940000001</v>
-      </c>
-      <c r="L23">
-        <f>(100 * J23) / ( J23 + K23 )</f>
-        <v>36.42938332896545</v>
+        <v>36.512773619213583</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -1264,23 +1396,23 @@
       </c>
       <c r="H24">
         <f t="shared" si="2"/>
-        <v>8.0566534900000004</v>
+        <v>106503.58803547334</v>
       </c>
       <c r="I24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J24">
+        <f t="shared" si="6"/>
+        <v>385692.93379199004</v>
+      </c>
+      <c r="K24">
         <f t="shared" si="5"/>
-        <v>28.984594450000003</v>
-      </c>
-      <c r="K24">
+        <v>570178.91398589034</v>
+      </c>
+      <c r="L24">
         <f t="shared" si="4"/>
-        <v>42.920245940000001</v>
-      </c>
-      <c r="L24">
-        <f>(100 * J24) / ( J24 + K24 )</f>
-        <v>40.309656892070606</v>
+        <v>40.349858057710577</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -1313,19 +1445,19 @@
       </c>
       <c r="I25">
         <f t="shared" si="3"/>
-        <v>4.5160914999999999</v>
+        <v>59574.322095016658</v>
       </c>
       <c r="J25">
+        <f t="shared" si="6"/>
+        <v>385692.93379199004</v>
+      </c>
+      <c r="K25">
         <f t="shared" si="5"/>
-        <v>28.984594450000003</v>
-      </c>
-      <c r="K25">
+        <v>521244.1103601717</v>
+      </c>
+      <c r="L25">
         <f t="shared" si="4"/>
-        <v>39.267396950000006</v>
-      </c>
-      <c r="L25">
-        <f>(100 * J25) / ( J25 + K25 )</f>
-        <v>42.467031152441947</v>
+        <v>42.526979824994363</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -1358,19 +1490,19 @@
       </c>
       <c r="I26">
         <f t="shared" si="3"/>
-        <v>6.085</v>
+        <v>80143.912333333326</v>
       </c>
       <c r="J26">
+        <f t="shared" si="6"/>
+        <v>341252.49757709267</v>
+      </c>
+      <c r="K26">
         <f t="shared" si="5"/>
-        <v>25.650794959999999</v>
-      </c>
-      <c r="K26">
+        <v>601388.02269350505</v>
+      </c>
+      <c r="L26">
         <f t="shared" si="4"/>
-        <v>45.352396950000006</v>
-      </c>
-      <c r="L26">
-        <f>(100 * J26) / ( J26 + K26 )</f>
-        <v>36.12625611608226</v>
+        <v>36.201764112488135</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -1403,19 +1535,19 @@
       </c>
       <c r="I27">
         <f t="shared" si="3"/>
-        <v>8.8964839999999992</v>
+        <v>117116.28087066665</v>
       </c>
       <c r="J27">
+        <f t="shared" si="6"/>
+        <v>200550.52450006566</v>
+      </c>
+      <c r="K27">
         <f t="shared" si="5"/>
-        <v>15.114451970000001</v>
-      </c>
-      <c r="K27">
+        <v>718504.30356417166</v>
+      </c>
+      <c r="L27">
         <f t="shared" si="4"/>
-        <v>54.248880950000007</v>
-      </c>
-      <c r="L27">
-        <f>(100 * J27) / ( J27 + K27 )</f>
-        <v>21.790261992502881</v>
+        <v>21.821388493489117</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -1444,23 +1576,23 @@
       </c>
       <c r="H28">
         <f t="shared" si="2"/>
-        <v>9.7500280000000004</v>
+        <v>128544.04415106667</v>
       </c>
       <c r="I28">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J28">
+        <f t="shared" si="6"/>
+        <v>329094.56865113234</v>
+      </c>
+      <c r="K28">
         <f t="shared" si="5"/>
-        <v>24.864479970000001</v>
-      </c>
-      <c r="K28">
+        <v>618710.36123036535</v>
+      </c>
+      <c r="L28">
         <f t="shared" si="4"/>
-        <v>46.762107960000002</v>
-      </c>
-      <c r="L28">
-        <f>(100 * J28) / ( J28 + K28 )</f>
-        <v>34.714036628828147</v>
+        <v>34.721761649021857</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -1489,23 +1621,23 @@
       </c>
       <c r="H29">
         <f t="shared" si="2"/>
-        <v>5.4175084900000003</v>
+        <v>71665.691643581333</v>
       </c>
       <c r="I29">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J29">
+        <f t="shared" si="6"/>
+        <v>400760.26029471366</v>
+      </c>
+      <c r="K29">
         <f t="shared" si="5"/>
-        <v>30.281988460000001</v>
-      </c>
-      <c r="K29">
+        <v>592921.14954787702</v>
+      </c>
+      <c r="L29">
         <f t="shared" si="4"/>
-        <v>44.825665970000003</v>
-      </c>
-      <c r="L29">
-        <f>(100 * J29) / ( J29 + K29 )</f>
-        <v>40.318112301353629</v>
+        <v>40.330860205807632</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -1534,23 +1666,23 @@
       </c>
       <c r="H30">
         <f t="shared" si="2"/>
-        <v>5.3261370000000001</v>
+        <v>70679.968444800004</v>
       </c>
       <c r="I30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J30">
+        <f t="shared" si="6"/>
+        <v>402129.23099307035</v>
+      </c>
+      <c r="K30">
         <f t="shared" si="5"/>
-        <v>30.405508470000001</v>
-      </c>
-      <c r="K30">
+        <v>592921.14954787702</v>
+      </c>
+      <c r="L30">
         <f t="shared" si="4"/>
-        <v>44.825665970000003</v>
-      </c>
-      <c r="L30">
-        <f>(100 * J30) / ( J30 + K30 )</f>
-        <v>40.416102362258961</v>
+        <v>40.412951832092922</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -1579,23 +1711,23 @@
       </c>
       <c r="H31">
         <f t="shared" si="2"/>
-        <v>9.8668130000000005</v>
+        <v>131241.43975690001</v>
       </c>
       <c r="I31">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J31">
+        <f t="shared" si="6"/>
+        <v>533370.67074997036</v>
+      </c>
+      <c r="K31">
         <f t="shared" si="5"/>
-        <v>40.272321470000001</v>
-      </c>
-      <c r="K31">
+        <v>567730.15099329792</v>
+      </c>
+      <c r="L31">
         <f t="shared" si="4"/>
-        <v>42.934747980000004</v>
-      </c>
-      <c r="L31">
-        <f>(100 * J31) / ( J31 + K31 )</f>
-        <v>48.40012000927404</v>
+        <v>48.439766842198452</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -1624,23 +1756,23 @@
       </c>
       <c r="H32">
         <f t="shared" si="2"/>
-        <v>13.409792489999999</v>
+        <v>178866.96412094802</v>
       </c>
       <c r="I32">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J32">
+        <f t="shared" si="6"/>
+        <v>687501.69615276938</v>
+      </c>
+      <c r="K32">
         <f t="shared" si="5"/>
-        <v>51.826932470000003</v>
-      </c>
-      <c r="K32">
+        <v>567730.15099329792</v>
+      </c>
+      <c r="L32">
         <f t="shared" si="4"/>
-        <v>42.934747980000004</v>
-      </c>
-      <c r="L32">
-        <f>(100 * J32) / ( J32 + K32 )</f>
-        <v>54.691867244108167</v>
+        <v>54.770893338620574</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -1669,23 +1801,23 @@
       </c>
       <c r="H33">
         <f t="shared" si="2"/>
-        <v>7.7613619900000002</v>
+        <v>104098.75026674234</v>
       </c>
       <c r="I33">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J33">
+        <f t="shared" si="6"/>
+        <v>791600.44641951169</v>
+      </c>
+      <c r="K33">
         <f t="shared" si="5"/>
-        <v>59.58829446</v>
-      </c>
-      <c r="K33">
+        <v>500270.32372866035</v>
+      </c>
+      <c r="L33">
         <f t="shared" si="4"/>
-        <v>37.864321490000002</v>
-      </c>
-      <c r="L33">
-        <f>(100 * J33) / ( J33 + K33 )</f>
-        <v>61.145915765435127</v>
+        <v>61.275513364910218</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -1714,23 +1846,23 @@
       </c>
       <c r="H34">
         <f t="shared" si="2"/>
-        <v>9.0202704899999997</v>
+        <v>121180.41849244098</v>
       </c>
       <c r="I34">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J34">
+        <f t="shared" si="6"/>
+        <v>912780.86491195264</v>
+      </c>
+      <c r="K34">
         <f t="shared" si="5"/>
-        <v>68.608564950000002</v>
-      </c>
-      <c r="K34">
+        <v>430349.80370001029</v>
+      </c>
+      <c r="L34">
         <f t="shared" si="4"/>
-        <v>32.604014990000003</v>
-      </c>
-      <c r="L34">
-        <f>(100 * J34) / ( J34 + K34 )</f>
-        <v>67.786598257520907</v>
+        <v>67.959200563505235</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -1763,19 +1895,19 @@
       </c>
       <c r="I35">
         <f t="shared" si="3"/>
-        <v>9.8644309900000007</v>
+        <v>132456.94881878933</v>
       </c>
       <c r="J35">
+        <f t="shared" si="6"/>
+        <v>912780.86491195264</v>
+      </c>
+      <c r="K35">
         <f t="shared" si="5"/>
-        <v>68.608564950000002</v>
-      </c>
-      <c r="K35">
+        <v>562806.75251879962</v>
+      </c>
+      <c r="L35">
         <f t="shared" si="4"/>
-        <v>42.468445980000006</v>
-      </c>
-      <c r="L35">
-        <f>(100 * J35) / ( J35 + K35 )</f>
-        <v>61.766664745089933</v>
+        <v>61.858804867260858</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -1804,23 +1936,23 @@
       </c>
       <c r="H36">
         <f t="shared" si="2"/>
-        <v>5.4247445000000001</v>
+        <v>73010.912926233344</v>
       </c>
       <c r="I36">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J36">
+        <f t="shared" si="6"/>
+        <v>985791.77783818601</v>
+      </c>
+      <c r="K36">
         <f t="shared" si="5"/>
-        <v>74.033309450000004</v>
-      </c>
-      <c r="K36">
+        <v>451490.99192965595</v>
+      </c>
+      <c r="L36">
         <f t="shared" si="4"/>
-        <v>34.07293799</v>
-      </c>
-      <c r="L36">
-        <f>(100 * J36) / ( J36 + K36 )</f>
-        <v>68.481989897104881</v>
+        <v>68.587183995632031</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -1849,23 +1981,23 @@
       </c>
       <c r="H37">
         <f t="shared" si="2"/>
-        <v>12.291229489999999</v>
+        <v>165641.11539138632</v>
       </c>
       <c r="I37">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J37">
+        <f t="shared" si="6"/>
+        <v>1151432.8932295723</v>
+      </c>
+      <c r="K37">
         <f t="shared" si="5"/>
-        <v>86.324538939999997</v>
-      </c>
-      <c r="K37">
+        <v>389291.464117806</v>
+      </c>
+      <c r="L37">
         <f t="shared" si="4"/>
-        <v>29.362006489999999</v>
-      </c>
-      <c r="L37">
-        <f>(100 * J37) / ( J37 + K37 )</f>
-        <v>74.619341963351772</v>
+        <v>74.733218030768455</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -1894,23 +2026,23 @@
       </c>
       <c r="H38">
         <f t="shared" si="2"/>
-        <v>8.2387595000000005</v>
+        <v>111037.0572853</v>
       </c>
       <c r="I38">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J38">
+        <f t="shared" si="6"/>
+        <v>1155966.362479399</v>
+      </c>
+      <c r="K38">
         <f t="shared" si="5"/>
-        <v>86.506644949999995</v>
-      </c>
-      <c r="K38">
+        <v>389291.464117806</v>
+      </c>
+      <c r="L38">
         <f t="shared" si="4"/>
-        <v>29.362006489999999</v>
-      </c>
-      <c r="L38">
-        <f>(100 * J38) / ( J38 + K38 )</f>
-        <v>74.659231703232109</v>
+        <v>74.807345582254044</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -1939,23 +2071,23 @@
       </c>
       <c r="H39">
         <f t="shared" si="2"/>
-        <v>5.2544620000000002</v>
+        <v>70841.182130200003</v>
       </c>
       <c r="I39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J39">
+        <f t="shared" si="6"/>
+        <v>1226807.544609599</v>
+      </c>
+      <c r="K39">
         <f t="shared" si="5"/>
-        <v>91.761106949999999</v>
-      </c>
-      <c r="K39">
+        <v>329717.14202278934</v>
+      </c>
+      <c r="L39">
         <f t="shared" si="4"/>
-        <v>24.845914989999997</v>
-      </c>
-      <c r="L39">
-        <f>(100 * J39) / ( J39 + K39 )</f>
-        <v>78.692608235218941</v>
+        <v>78.81709523437452</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -1984,23 +2116,23 @@
       </c>
       <c r="H40">
         <f t="shared" si="2"/>
-        <v>4.3375905000000001</v>
+        <v>58511.637877050009</v>
       </c>
       <c r="I40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J40">
+        <f t="shared" si="6"/>
+        <v>1285319.1824866491</v>
+      </c>
+      <c r="K40">
         <f t="shared" si="5"/>
-        <v>96.098697450000003</v>
-      </c>
-      <c r="K40">
+        <v>249573.229689456</v>
+      </c>
+      <c r="L40">
         <f t="shared" si="4"/>
-        <v>18.76091499</v>
-      </c>
-      <c r="L40">
-        <f>(100 * J40) / ( J40 + K40 )</f>
-        <v>83.666221231766499</v>
+        <v>83.740018016271137</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -2029,23 +2161,23 @@
       </c>
       <c r="H41">
         <f t="shared" si="2"/>
-        <v>12.11879149</v>
+        <v>163737.79974082264</v>
       </c>
       <c r="I41">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J41">
+        <f t="shared" si="6"/>
+        <v>1449056.9822274717</v>
+      </c>
+      <c r="K41">
         <f t="shared" si="5"/>
-        <v>108.21748894000001</v>
-      </c>
-      <c r="K41">
+        <v>132456.94881878933</v>
+      </c>
+      <c r="L41">
         <f t="shared" si="4"/>
-        <v>9.8644309900000007</v>
-      </c>
-      <c r="L41">
-        <f>(100 * J41) / ( J41 + K41 )</f>
-        <v>91.646112295728486</v>
+        <v>91.624673914117125</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -2074,23 +2206,23 @@
       </c>
       <c r="H42">
         <f t="shared" si="2"/>
-        <v>14.300119499999999</v>
+        <v>193468.70006874998</v>
       </c>
       <c r="I42">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J42">
+        <f t="shared" si="6"/>
+        <v>1513981.6381451548</v>
+      </c>
+      <c r="K42">
         <f t="shared" si="5"/>
-        <v>112.76758044000002</v>
-      </c>
-      <c r="K42">
+        <v>132456.94881878933</v>
+      </c>
+      <c r="L42">
         <f t="shared" si="4"/>
-        <v>9.8644309900000007</v>
-      </c>
-      <c r="L42">
-        <f>(100 * J42) / ( J42 + K42 )</f>
-        <v>91.956071767092595</v>
+        <v>91.954941419160861</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -2123,19 +2255,19 @@
       </c>
       <c r="I43">
         <f t="shared" si="3"/>
-        <v>31.455409</v>
+        <v>424840.94800853333</v>
       </c>
       <c r="J43">
+        <f t="shared" si="6"/>
+        <v>1442315.9465015735</v>
+      </c>
+      <c r="K43">
         <f t="shared" si="5"/>
-        <v>107.35007195</v>
-      </c>
-      <c r="K43">
+        <v>557297.89682732266</v>
+      </c>
+      <c r="L43">
         <f t="shared" si="4"/>
-        <v>41.319839989999998</v>
-      </c>
-      <c r="L43">
-        <f>(100 * J43) / ( J43 + K43 )</f>
-        <v>72.206992355873737</v>
+        <v>72.129724012134758</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -2168,19 +2300,19 @@
       </c>
       <c r="I44">
         <f t="shared" si="3"/>
-        <v>11.727529499999999</v>
+        <v>157852.93798765002</v>
       </c>
       <c r="J44">
+        <f t="shared" si="6"/>
+        <v>1371635.9780567735</v>
+      </c>
+      <c r="K44">
         <f t="shared" si="5"/>
-        <v>102.02393495000001</v>
-      </c>
-      <c r="K44">
+        <v>715150.83481497271</v>
+      </c>
+      <c r="L44">
         <f t="shared" si="4"/>
-        <v>53.047369489999994</v>
-      </c>
-      <c r="L44">
-        <f>(100 * J44) / ( J44 + K44 )</f>
-        <v>65.791627482875128</v>
+        <v>65.729569000351646</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -2213,19 +2345,19 @@
       </c>
       <c r="I45">
         <f t="shared" si="3"/>
-        <v>15.57206349</v>
+        <v>209180.047929953</v>
       </c>
       <c r="J45">
+        <f t="shared" si="6"/>
+        <v>1240394.5382998737</v>
+      </c>
+      <c r="K45">
         <f t="shared" si="5"/>
-        <v>92.157121950000004</v>
-      </c>
-      <c r="K45">
+        <v>924330.88274492568</v>
+      </c>
+      <c r="L45">
         <f t="shared" si="4"/>
-        <v>68.619432979999999</v>
-      </c>
-      <c r="L45">
-        <f>(100 * J45) / ( J45 + K45 )</f>
-        <v>57.320000413072663</v>
+        <v>57.300317455559806</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -2254,23 +2386,23 @@
       </c>
       <c r="H46">
         <f t="shared" si="2"/>
-        <v>17.75356099</v>
+        <v>238581.22936411502</v>
       </c>
       <c r="I46">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J46">
+        <f t="shared" si="6"/>
+        <v>1300108.8035430405</v>
+      </c>
+      <c r="K46">
         <f t="shared" si="5"/>
-        <v>96.500890449999986</v>
-      </c>
-      <c r="K46">
+        <v>924330.88274492568</v>
+      </c>
+      <c r="L46">
         <f t="shared" si="4"/>
-        <v>68.619432979999999</v>
-      </c>
-      <c r="L46">
-        <f>(100 * J46) / ( J46 + K46 )</f>
-        <v>58.442769760507367</v>
+        <v>58.446574728784718</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -2299,23 +2431,23 @@
       </c>
       <c r="H47">
         <f t="shared" si="2"/>
-        <v>7.05885199</v>
+        <v>94954.265199082001</v>
       </c>
       <c r="I47">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J47">
+        <f t="shared" si="6"/>
+        <v>1290964.3184753801</v>
+      </c>
+      <c r="K47">
         <f t="shared" si="5"/>
-        <v>95.798380449999982</v>
-      </c>
-      <c r="K47">
-        <f t="shared" si="4"/>
-        <v>68.619432979999999</v>
+        <v>924330.88274492568</v>
       </c>
       <c r="L47">
-        <f>(100 * J47) / ( J47 + K47 )</f>
-        <v>58.265207675192478</v>
+        <f t="shared" ref="L47:L78" si="7">(100 * J47) / ( J47 + K47 )</f>
+        <v>58.275046944725311</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -2344,23 +2476,23 @@
       </c>
       <c r="H48">
         <f t="shared" si="2"/>
-        <v>6.1940829900000001</v>
+        <v>83464.442412518008</v>
       </c>
       <c r="I48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J48">
+        <f t="shared" si="6"/>
+        <v>1253248.3423954572</v>
+      </c>
+      <c r="K48">
         <f t="shared" si="5"/>
-        <v>92.972192949999993</v>
-      </c>
-      <c r="K48">
-        <f t="shared" si="4"/>
-        <v>68.619432979999999</v>
+        <v>924330.88274492568</v>
       </c>
       <c r="L48">
-        <f>(100 * J48) / ( J48 + K48 )</f>
-        <v>57.535279080782743</v>
+        <f t="shared" si="7"/>
+        <v>57.552364934720728</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -2393,19 +2525,19 @@
       </c>
       <c r="I49">
         <f t="shared" si="3"/>
-        <v>27.493361490000002</v>
+        <v>370410.72779170598</v>
       </c>
       <c r="J49">
+        <f t="shared" si="6"/>
+        <v>1253248.3423954572</v>
+      </c>
+      <c r="K49">
         <f t="shared" si="5"/>
-        <v>92.972192949999993</v>
-      </c>
-      <c r="K49">
-        <f t="shared" si="4"/>
-        <v>86.248363479999995</v>
+        <v>1162284.6617178423</v>
       </c>
       <c r="L49">
-        <f>(100 * J49) / ( J49 + K49 )</f>
-        <v>51.875853307214285</v>
+        <f t="shared" si="7"/>
+        <v>51.882890453633145</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -2434,23 +2566,23 @@
       </c>
       <c r="H50">
         <f t="shared" si="2"/>
-        <v>17.964736989999999</v>
+        <v>242164.65462519997</v>
       </c>
       <c r="I50">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J50">
+        <f t="shared" si="6"/>
+        <v>1422402.0840944238</v>
+      </c>
+      <c r="K50">
         <f t="shared" si="5"/>
-        <v>105.51218544</v>
-      </c>
-      <c r="K50">
-        <f t="shared" si="4"/>
-        <v>86.248363479999995</v>
+        <v>1162284.6617178423</v>
       </c>
       <c r="L50">
-        <f>(100 * J50) / ( J50 + K50 )</f>
-        <v>55.022884547550134</v>
+        <f t="shared" si="7"/>
+        <v>55.031894538052356</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -2479,23 +2611,23 @@
       </c>
       <c r="H51">
         <f t="shared" si="2"/>
-        <v>8.3816020000000009</v>
+        <v>113051.88593620002</v>
       </c>
       <c r="I51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J51">
+        <f t="shared" si="6"/>
+        <v>1369812.8546392375</v>
+      </c>
+      <c r="K51">
         <f t="shared" si="5"/>
-        <v>101.60255794999999</v>
-      </c>
-      <c r="K51">
-        <f t="shared" si="4"/>
-        <v>86.248363479999995</v>
+        <v>1162284.6617178423</v>
       </c>
       <c r="L51">
-        <f>(100 * J51) / ( J51 + K51 )</f>
-        <v>54.086803075842653</v>
+        <f t="shared" si="7"/>
+        <v>54.09795024837679</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -2524,23 +2656,23 @@
       </c>
       <c r="H52">
         <f t="shared" si="2"/>
-        <v>17.024535</v>
+        <v>230459.4278415</v>
       </c>
       <c r="I52">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J52">
+        <f t="shared" si="6"/>
+        <v>1489235.2251954374</v>
+      </c>
+      <c r="K52">
         <f t="shared" si="5"/>
-        <v>110.38833345</v>
-      </c>
-      <c r="K52">
-        <f t="shared" si="4"/>
-        <v>86.248363479999995</v>
+        <v>1162284.6617178423</v>
       </c>
       <c r="L52">
-        <f>(100 * J52) / ( J52 + K52 )</f>
-        <v>56.138215894308253</v>
+        <f t="shared" si="7"/>
+        <v>56.165342471902193</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -2569,23 +2701,23 @@
       </c>
       <c r="H53">
         <f t="shared" si="2"/>
-        <v>14.401354</v>
+        <v>195470.53793226666</v>
       </c>
       <c r="I53">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J53">
+        <f t="shared" si="6"/>
+        <v>1613864.5809975041</v>
+      </c>
+      <c r="K53">
         <f t="shared" si="5"/>
-        <v>119.53522545</v>
-      </c>
-      <c r="K53">
-        <f t="shared" si="4"/>
-        <v>86.248363479999995</v>
+        <v>1162284.6617178423</v>
       </c>
       <c r="L53">
-        <f>(100 * J53) / ( J53 + K53 )</f>
-        <v>58.087832013981192</v>
+        <f t="shared" si="7"/>
+        <v>58.133206823527466</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
@@ -2614,23 +2746,23 @@
       </c>
       <c r="H54">
         <f t="shared" si="2"/>
-        <v>16.779206989999999</v>
+        <v>227760.39637536032</v>
       </c>
       <c r="I54">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J54">
+        <f t="shared" si="6"/>
+        <v>1783113.3394958144</v>
+      </c>
+      <c r="K54">
         <f t="shared" si="5"/>
-        <v>131.97684193999999</v>
-      </c>
-      <c r="K54">
-        <f t="shared" si="4"/>
-        <v>86.248363479999995</v>
+        <v>1162284.6617178423</v>
       </c>
       <c r="L54">
-        <f>(100 * J54) / ( J54 + K54 )</f>
-        <v>60.477359471833275</v>
+        <f t="shared" si="7"/>
+        <v>60.538960736752017</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -2659,23 +2791,23 @@
       </c>
       <c r="H55">
         <f t="shared" si="2"/>
-        <v>13.395746000000001</v>
+        <v>181906.19323239999</v>
       </c>
       <c r="I55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J55">
+        <f t="shared" si="6"/>
+        <v>1801281.7329873918</v>
+      </c>
+      <c r="K55">
         <f t="shared" si="5"/>
-        <v>133.25379644999998</v>
-      </c>
-      <c r="K55">
-        <f t="shared" si="4"/>
-        <v>86.248363479999995</v>
+        <v>1162284.6617178423</v>
       </c>
       <c r="L55">
-        <f>(100 * J55) / ( J55 + K55 )</f>
-        <v>60.707282558173951</v>
+        <f t="shared" si="7"/>
+        <v>60.780879962925646</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -2704,23 +2836,23 @@
       </c>
       <c r="H56">
         <f t="shared" si="2"/>
-        <v>10.755549500000001</v>
+        <v>146223.84656240002</v>
       </c>
       <c r="I56">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J56">
+        <f t="shared" si="6"/>
+        <v>1754036.8794810418</v>
+      </c>
+      <c r="K56">
         <f t="shared" si="5"/>
-        <v>129.70922645000002</v>
-      </c>
-      <c r="K56">
-        <f t="shared" si="4"/>
-        <v>86.248363479999995</v>
+        <v>1162284.6617178423</v>
       </c>
       <c r="L56">
-        <f>(100 * J56) / ( J56 + K56 )</f>
-        <v>60.062360619991949</v>
+        <f t="shared" si="7"/>
+        <v>60.145524240100308</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -2753,19 +2885,19 @@
       </c>
       <c r="I57">
         <f t="shared" si="3"/>
-        <v>5.1573845</v>
+        <v>70059.974001800001</v>
       </c>
       <c r="J57">
+        <f t="shared" si="6"/>
+        <v>1754036.8794810418</v>
+      </c>
+      <c r="K57">
         <f t="shared" si="5"/>
-        <v>129.70922645000002</v>
-      </c>
-      <c r="K57">
-        <f t="shared" si="4"/>
-        <v>59.950338980000005</v>
+        <v>807503.68771110894</v>
       </c>
       <c r="L57">
-        <f>(100 * J57) / ( J57 + K57 )</f>
-        <v>68.390553440276335</v>
+        <f t="shared" si="7"/>
+        <v>68.475857924972885</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -2794,23 +2926,23 @@
       </c>
       <c r="H58">
         <f t="shared" si="2"/>
-        <v>4.9642494900000003</v>
+        <v>67437.012671888006</v>
       </c>
       <c r="I58">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J58">
+        <f t="shared" si="6"/>
+        <v>1821473.8921529299</v>
+      </c>
+      <c r="K58">
         <f t="shared" si="5"/>
-        <v>134.67347594</v>
-      </c>
-      <c r="K58">
-        <f t="shared" si="4"/>
-        <v>48.222809480000002</v>
+        <v>649650.7497234589</v>
       </c>
       <c r="L58">
-        <f>(100 * J58) / ( J58 + K58 )</f>
-        <v>73.633795038941372</v>
+        <f t="shared" si="7"/>
+        <v>73.710320446233652</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -2839,23 +2971,23 @@
       </c>
       <c r="H59">
         <f t="shared" si="2"/>
-        <v>6.5922074899999998</v>
+        <v>89873.762113666671</v>
       </c>
       <c r="I59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J59">
+        <f t="shared" si="6"/>
+        <v>1911347.6542665965</v>
+      </c>
+      <c r="K59">
         <f t="shared" si="5"/>
-        <v>141.26568343</v>
-      </c>
-      <c r="K59">
-        <f t="shared" si="4"/>
-        <v>32.650745990000004</v>
+        <v>440470.70179350598</v>
       </c>
       <c r="L59">
-        <f>(100 * J59) / ( J59 + K59 )</f>
-        <v>81.226186566221429</v>
+        <f t="shared" si="7"/>
+        <v>81.271057747359052</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -2884,23 +3016,23 @@
       </c>
       <c r="H60">
         <f t="shared" si="2"/>
-        <v>9.9560674900000006</v>
+        <v>136342.70250397234</v>
       </c>
       <c r="I60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J60">
+        <f t="shared" si="6"/>
+        <v>1809109.1274064542</v>
+      </c>
+      <c r="K60">
         <f t="shared" si="5"/>
-        <v>133.46818993000002</v>
-      </c>
-      <c r="K60">
-        <f t="shared" si="4"/>
-        <v>32.650745990000004</v>
+        <v>440470.70179350598</v>
       </c>
       <c r="L60">
-        <f>(100 * J60) / ( J60 + K60 )</f>
-        <v>80.344958382273759</v>
+        <f t="shared" si="7"/>
+        <v>80.41986792039495</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -2929,23 +3061,23 @@
       </c>
       <c r="H61">
         <f t="shared" si="2"/>
-        <v>12.087865499999999</v>
+        <v>165905.14812980001</v>
       </c>
       <c r="I61">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J61">
+        <f t="shared" si="6"/>
+        <v>1880060.0103371723</v>
+      </c>
+      <c r="K61">
         <f t="shared" si="5"/>
-        <v>138.49720343999999</v>
-      </c>
-      <c r="K61">
-        <f t="shared" si="4"/>
-        <v>32.650745990000004</v>
+        <v>440470.70179350598</v>
       </c>
       <c r="L61">
-        <f>(100 * J61) / ( J61 + K61 )</f>
-        <v>80.922502373682107</v>
+        <f t="shared" si="7"/>
+        <v>81.01853599735071</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -2978,19 +3110,19 @@
       </c>
       <c r="I62">
         <f t="shared" si="3"/>
-        <v>17.979163499999999</v>
+        <v>246161.71706024997</v>
       </c>
       <c r="J62">
+        <f t="shared" si="6"/>
+        <v>1796595.5679246543</v>
+      </c>
+      <c r="K62">
         <f t="shared" si="5"/>
-        <v>132.30312044999999</v>
-      </c>
-      <c r="K62">
-        <f t="shared" si="4"/>
-        <v>50.629909490000003</v>
+        <v>686632.41885375592</v>
       </c>
       <c r="L62">
-        <f>(100 * J62) / ( J62 + K62 )</f>
-        <v>72.323254304263131</v>
+        <f t="shared" si="7"/>
+        <v>72.34919940860722</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -3023,19 +3155,19 @@
       </c>
       <c r="I63">
         <f t="shared" si="3"/>
-        <v>10.178425499999999</v>
+        <v>139355.19848645001</v>
       </c>
       <c r="J63">
+        <f t="shared" si="6"/>
+        <v>1796595.5679246543</v>
+      </c>
+      <c r="K63">
         <f t="shared" si="5"/>
-        <v>132.30312044999999</v>
-      </c>
-      <c r="K63">
-        <f t="shared" si="4"/>
-        <v>33.314973499999994</v>
+        <v>455576.88954849995</v>
       </c>
       <c r="L63">
-        <f>(100 * J63) / ( J63 + K63 )</f>
-        <v>79.884460263105197</v>
+        <f t="shared" si="7"/>
+        <v>79.771669436911665</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -3064,23 +3196,23 @@
       </c>
       <c r="H64">
         <f t="shared" si="2"/>
-        <v>10.5935995</v>
+        <v>145471.308334</v>
       </c>
       <c r="I64">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J64">
+        <f t="shared" si="6"/>
+        <v>1699902.2216334541</v>
+      </c>
+      <c r="K64">
         <f t="shared" si="5"/>
-        <v>124.93198295999998</v>
-      </c>
-      <c r="K64">
-        <f t="shared" si="4"/>
-        <v>33.314973499999994</v>
+        <v>455576.88954849995</v>
       </c>
       <c r="L64">
-        <f>(100 * J64) / ( J64 + K64 )</f>
-        <v>78.947479152042334</v>
+        <f t="shared" si="7"/>
+        <v>78.864240103969976</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -3113,19 +3245,19 @@
       </c>
       <c r="I65">
         <f t="shared" si="3"/>
-        <v>6.4051139900000003</v>
+        <v>87825.64200808201</v>
       </c>
       <c r="J65">
+        <f t="shared" si="6"/>
+        <v>1586850.3356972539</v>
+      </c>
+      <c r="K65">
         <f t="shared" si="5"/>
-        <v>116.55038096</v>
-      </c>
-      <c r="K65">
-        <f t="shared" si="4"/>
-        <v>39.720087489999997</v>
+        <v>543402.53155658196</v>
       </c>
       <c r="L65">
-        <f>(100 * J65) / ( J65 + K65 )</f>
-        <v>74.582473653549727</v>
+        <f t="shared" si="7"/>
+        <v>74.491172390388741</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -3142,14 +3274,14 @@
         <v>13654.2</v>
       </c>
       <c r="E66">
-        <f t="shared" ref="E66:E129" si="6">(B66+C66+D66)/3</f>
+        <f t="shared" ref="E66:E129" si="8">(B66+C66+D66)/3</f>
         <v>13667.5</v>
       </c>
       <c r="F66">
         <v>5.2796620000000001</v>
       </c>
       <c r="G66">
-        <f t="shared" ref="G66:G129" si="7">E66*F66</f>
+        <f t="shared" ref="G66:G129" si="9">E66*F66</f>
         <v>72159.780385000005</v>
       </c>
       <c r="H66">
@@ -3158,19 +3290,19 @@
       </c>
       <c r="I66">
         <f t="shared" si="3"/>
-        <v>5.2796620000000001</v>
+        <v>72159.780385000005</v>
       </c>
       <c r="J66">
+        <f t="shared" si="6"/>
+        <v>1356390.907855754</v>
+      </c>
+      <c r="K66">
         <f t="shared" si="5"/>
-        <v>99.525845959999984</v>
-      </c>
-      <c r="K66">
-        <f t="shared" si="4"/>
-        <v>44.999749489999999</v>
+        <v>615562.31194158201</v>
       </c>
       <c r="L66">
-        <f>(100 * J66) / ( J66 + K66 )</f>
-        <v>68.863820038321109</v>
+        <f t="shared" si="7"/>
+        <v>68.784132110149883</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -3187,35 +3319,35 @@
         <v>13668.4</v>
       </c>
       <c r="E67">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13663.666666666666</v>
       </c>
       <c r="F67">
         <v>2.9846889999999999</v>
       </c>
       <c r="G67">
+        <f t="shared" si="9"/>
+        <v>40781.795599666664</v>
+      </c>
+      <c r="H67">
+        <f t="shared" ref="H67:H130" si="10">IF(E67&gt;E66,G67,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <f t="shared" ref="I67:I130" si="11">IF(E67&lt;E66,G67,0)</f>
+        <v>40781.795599666664</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="6"/>
+        <v>1160920.3699234873</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="5"/>
+        <v>656344.10754124867</v>
+      </c>
+      <c r="L67">
         <f t="shared" si="7"/>
-        <v>40781.795599666664</v>
-      </c>
-      <c r="H67">
-        <f t="shared" ref="H67:H130" si="8">IF(E67&gt;E66,F67,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I67">
-        <f t="shared" ref="I67:I130" si="9">IF(E67&lt;E66,F67,0)</f>
-        <v>2.9846889999999999</v>
-      </c>
-      <c r="J67">
-        <f t="shared" si="5"/>
-        <v>85.12449196</v>
-      </c>
-      <c r="K67">
-        <f t="shared" si="4"/>
-        <v>47.984438490000002</v>
-      </c>
-      <c r="L67">
-        <f>(100 * J67) / ( J67 + K67 )</f>
-        <v>63.950999885748082</v>
+        <v>63.882851633301406</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -3232,35 +3364,35 @@
         <v>13661.1</v>
       </c>
       <c r="E68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13663.5</v>
       </c>
       <c r="F68">
         <v>13.717003500000001</v>
       </c>
       <c r="G68">
+        <f t="shared" si="9"/>
+        <v>187422.27732225001</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="11"/>
+        <v>187422.27732225001</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="6"/>
+        <v>933159.97354812711</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="5"/>
+        <v>843766.38486349862</v>
+      </c>
+      <c r="L68">
         <f t="shared" si="7"/>
-        <v>187422.27732225001</v>
-      </c>
-      <c r="H68">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I68">
-        <f t="shared" si="9"/>
-        <v>13.717003500000001</v>
-      </c>
-      <c r="J68">
-        <f t="shared" si="5"/>
-        <v>68.345284970000009</v>
-      </c>
-      <c r="K68">
-        <f t="shared" si="4"/>
-        <v>61.701441990000006</v>
-      </c>
-      <c r="L68">
-        <f>(100 * J68) / ( J68 + K68 )</f>
-        <v>52.554406072074215</v>
+        <v>52.515399365355144</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
@@ -3277,35 +3409,35 @@
         <v>13638.4</v>
       </c>
       <c r="E69">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13638.566666666668</v>
       </c>
       <c r="F69">
         <v>12.05136199</v>
       </c>
       <c r="G69">
+        <f t="shared" si="9"/>
+        <v>164363.30392474768</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="11"/>
+        <v>164363.30392474768</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="6"/>
+        <v>751253.780315727</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="5"/>
+        <v>1008129.6887882464</v>
+      </c>
+      <c r="L69">
         <f t="shared" si="7"/>
-        <v>164363.30392474768</v>
-      </c>
-      <c r="H69">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I69">
-        <f t="shared" si="9"/>
-        <v>12.05136199</v>
-      </c>
-      <c r="J69">
-        <f t="shared" si="5"/>
-        <v>54.949538970000006</v>
-      </c>
-      <c r="K69">
-        <f t="shared" si="4"/>
-        <v>73.75280398000001</v>
-      </c>
-      <c r="L69">
-        <f>(100 * J69) / ( J69 + K69 )</f>
-        <v>42.695057223121054</v>
+        <v>42.699831702882193</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
@@ -3322,35 +3454,35 @@
         <v>13660</v>
       </c>
       <c r="E70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13652.866666666667</v>
       </c>
       <c r="F70">
         <v>7.4151214999999997</v>
       </c>
       <c r="G70">
+        <f t="shared" si="9"/>
+        <v>101237.66515663333</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="10"/>
+        <v>101237.66515663333</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="6"/>
+        <v>706267.59890996036</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="5"/>
+        <v>1008129.6887882464</v>
+      </c>
+      <c r="L70">
         <f t="shared" si="7"/>
-        <v>101237.66515663333</v>
-      </c>
-      <c r="H70">
-        <f t="shared" si="8"/>
-        <v>7.4151214999999997</v>
-      </c>
-      <c r="I70">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="J70">
-        <f t="shared" si="5"/>
-        <v>51.609110970000003</v>
-      </c>
-      <c r="K70">
-        <f t="shared" si="4"/>
-        <v>73.75280398000001</v>
-      </c>
-      <c r="L70">
-        <f>(100 * J70) / ( J70 + K70 )</f>
-        <v>41.168093986585994</v>
+        <v>41.196262032017863</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
@@ -3367,35 +3499,35 @@
         <v>13665.7</v>
       </c>
       <c r="E71">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13663.800000000001</v>
       </c>
       <c r="F71">
         <v>3.0366239899999998</v>
       </c>
       <c r="G71">
+        <f t="shared" si="9"/>
+        <v>41491.822874562</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="10"/>
+        <v>41491.822874562</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="6"/>
+        <v>747759.42178452236</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="5"/>
+        <v>938069.71478644642</v>
+      </c>
+      <c r="L71">
         <f t="shared" si="7"/>
-        <v>41491.822874562</v>
-      </c>
-      <c r="H71">
-        <f t="shared" si="8"/>
-        <v>3.0366239899999998</v>
-      </c>
-      <c r="I71">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="J71">
-        <f t="shared" si="5"/>
-        <v>54.645734960000006</v>
-      </c>
-      <c r="K71">
-        <f t="shared" si="4"/>
-        <v>68.595419480000004</v>
-      </c>
-      <c r="L71">
-        <f>(100 * J71) / ( J71 + K71 )</f>
-        <v>44.340492596249007</v>
+        <v>44.355587738001098</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
@@ -3412,35 +3544,35 @@
         <v>13697.4</v>
       </c>
       <c r="E72">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13690.033333333333</v>
       </c>
       <c r="F72">
         <v>2.1228084900000002</v>
       </c>
       <c r="G72">
+        <f t="shared" si="9"/>
+        <v>29061.318988383002</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="10"/>
+        <v>29061.318988383002</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="6"/>
+        <v>709383.72810101754</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="5"/>
+        <v>938069.71478644642</v>
+      </c>
+      <c r="L72">
         <f t="shared" si="7"/>
-        <v>29061.318988383002</v>
-      </c>
-      <c r="H72">
-        <f t="shared" si="8"/>
-        <v>2.1228084900000002</v>
-      </c>
-      <c r="I72">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="J72">
-        <f t="shared" si="5"/>
-        <v>51.804293960000003</v>
-      </c>
-      <c r="K72">
-        <f t="shared" si="4"/>
-        <v>68.595419480000004</v>
-      </c>
-      <c r="L72">
-        <f>(100 * J72) / ( J72 + K72 )</f>
-        <v>43.026924632853181</v>
+        <v>43.059409731038741</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -3457,35 +3589,35 @@
         <v>13697.4</v>
       </c>
       <c r="E73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13697.4</v>
       </c>
       <c r="F73">
         <v>1.3402949900000001</v>
       </c>
       <c r="G73">
+        <f t="shared" si="9"/>
+        <v>18358.556596025999</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="10"/>
+        <v>18358.556596025999</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="6"/>
+        <v>637868.52258337662</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="5"/>
+        <v>938069.71478644642</v>
+      </c>
+      <c r="L73">
         <f t="shared" si="7"/>
-        <v>18358.556596025999</v>
-      </c>
-      <c r="H73">
-        <f t="shared" si="8"/>
-        <v>1.3402949900000001</v>
-      </c>
-      <c r="I73">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="J73">
-        <f t="shared" si="5"/>
-        <v>46.552381459999992</v>
-      </c>
-      <c r="K73">
-        <f t="shared" si="4"/>
-        <v>68.595419480000004</v>
-      </c>
-      <c r="L73">
-        <f>(100 * J73) / ( J73 + K73 )</f>
-        <v>40.428372126930171</v>
+        <v>40.475477240018826</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
@@ -3502,35 +3634,35 @@
         <v>13637.1</v>
       </c>
       <c r="E74">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13655.833333333334</v>
       </c>
       <c r="F74">
         <v>7.1167389999999999</v>
       </c>
       <c r="G74">
+        <f t="shared" si="9"/>
+        <v>97185.001660833339</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="11"/>
+        <v>97185.001660833339</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="6"/>
+        <v>501525.8200794044</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="5"/>
+        <v>1035254.7164472798</v>
+      </c>
+      <c r="L74">
         <f t="shared" si="7"/>
-        <v>97185.001660833339</v>
-      </c>
-      <c r="H74">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I74">
-        <f t="shared" si="9"/>
-        <v>7.1167389999999999</v>
-      </c>
-      <c r="J74">
-        <f t="shared" si="5"/>
-        <v>36.596313969999997</v>
-      </c>
-      <c r="K74">
-        <f t="shared" si="4"/>
-        <v>75.712158479999999</v>
-      </c>
-      <c r="L74">
-        <f>(100 * J74) / ( J74 + K74 )</f>
-        <v>32.585532659873692</v>
+        <v>32.634836800634872</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
@@ -3547,35 +3679,35 @@
         <v>13636.2</v>
       </c>
       <c r="E75">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13636.5</v>
       </c>
       <c r="F75">
         <v>1.73604399</v>
       </c>
       <c r="G75">
+        <f t="shared" si="9"/>
+        <v>23673.563869635</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="11"/>
+        <v>23673.563869635</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="6"/>
+        <v>335620.67194960429</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="5"/>
+        <v>1058928.2803169149</v>
+      </c>
+      <c r="L75">
         <f t="shared" si="7"/>
-        <v>23673.563869635</v>
-      </c>
-      <c r="H75">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I75">
-        <f t="shared" si="9"/>
-        <v>1.73604399</v>
-      </c>
-      <c r="J75">
-        <f t="shared" si="5"/>
-        <v>24.508448470000001</v>
-      </c>
-      <c r="K75">
-        <f t="shared" si="4"/>
-        <v>77.448202469999998</v>
-      </c>
-      <c r="L75">
-        <f>(100 * J75) / ( J75 + K75 )</f>
-        <v>24.038106630653125</v>
+        <v>24.066611028901491</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
@@ -3592,35 +3724,35 @@
         <v>13654.1</v>
       </c>
       <c r="E76">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13648.133333333333</v>
       </c>
       <c r="F76">
         <v>3.4004599999999998</v>
       </c>
       <c r="G76">
+        <f t="shared" si="9"/>
+        <v>46409.931474666664</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="10"/>
+        <v>46409.931474666664</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="6"/>
+        <v>382030.60342427099</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="5"/>
+        <v>812766.56325666478</v>
+      </c>
+      <c r="L76">
         <f t="shared" si="7"/>
-        <v>46409.931474666664</v>
-      </c>
-      <c r="H76">
-        <f t="shared" si="8"/>
-        <v>3.4004599999999998</v>
-      </c>
-      <c r="I76">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="J76">
-        <f t="shared" si="5"/>
-        <v>27.90890847</v>
-      </c>
-      <c r="K76">
-        <f t="shared" si="4"/>
-        <v>59.469038970000007</v>
-      </c>
-      <c r="L76">
-        <f>(100 * J76) / ( J76 + K76 )</f>
-        <v>31.940448691775767</v>
+        <v>31.974515346862237</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
@@ -3637,35 +3769,35 @@
         <v>13636.2</v>
       </c>
       <c r="E77">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13640.133333333333</v>
       </c>
       <c r="F77">
         <v>2.4597764999999998</v>
       </c>
       <c r="G77">
+        <f t="shared" si="9"/>
+        <v>33551.679430199998</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="11"/>
+        <v>33551.679430199998</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="6"/>
+        <v>382030.60342427099</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="5"/>
+        <v>706963.04420041468</v>
+      </c>
+      <c r="L77">
         <f t="shared" si="7"/>
-        <v>33551.679430199998</v>
-      </c>
-      <c r="H77">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I77">
-        <f t="shared" si="9"/>
-        <v>2.4597764999999998</v>
-      </c>
-      <c r="J77">
-        <f t="shared" si="5"/>
-        <v>27.90890847</v>
-      </c>
-      <c r="K77">
-        <f t="shared" si="4"/>
-        <v>51.750389970000001</v>
-      </c>
-      <c r="L77">
-        <f>(100 * J77) / ( J77 + K77 )</f>
-        <v>35.035343037851639</v>
+        <v>35.081068127216042</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
@@ -3682,35 +3814,35 @@
         <v>13663.6</v>
       </c>
       <c r="E78">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13652.6</v>
       </c>
       <c r="F78">
         <v>3.8006085000000001</v>
       </c>
       <c r="G78">
+        <f t="shared" si="9"/>
+        <v>51888.187607100001</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="10"/>
+        <v>51888.187607100001</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="6"/>
+        <v>288447.48269737099</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="5"/>
+        <v>706963.04420041468</v>
+      </c>
+      <c r="L78">
         <f t="shared" si="7"/>
-        <v>51888.187607100001</v>
-      </c>
-      <c r="H78">
-        <f t="shared" si="8"/>
-        <v>3.8006085000000001</v>
-      </c>
-      <c r="I78">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="J78">
-        <f t="shared" si="5"/>
-        <v>21.115917469999999</v>
-      </c>
-      <c r="K78">
-        <f t="shared" si="4"/>
-        <v>51.750389970000001</v>
-      </c>
-      <c r="L78">
-        <f>(100 * J78) / ( J78 + K78 )</f>
-        <v>28.978986601437697</v>
+        <v>28.9777408318478</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
@@ -3727,35 +3859,35 @@
         <v>13639.5</v>
       </c>
       <c r="E79">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13647.533333333333</v>
       </c>
       <c r="F79">
         <v>5.2955255000000001</v>
       </c>
       <c r="G79">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>72270.86077876667</v>
       </c>
       <c r="H79">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I79">
-        <f t="shared" si="9"/>
-        <v>5.2955255000000001</v>
+        <f t="shared" si="11"/>
+        <v>72270.86077876667</v>
       </c>
       <c r="J79">
+        <f t="shared" si="6"/>
+        <v>288447.48269737099</v>
+      </c>
+      <c r="K79">
         <f t="shared" si="5"/>
-        <v>21.115917469999999</v>
-      </c>
-      <c r="K79">
-        <f t="shared" si="4"/>
-        <v>50.640801479999993</v>
+        <v>691408.26297109935</v>
       </c>
       <c r="L79">
-        <f>(100 * J79) / ( J79 + K79 )</f>
-        <v>29.42709446444109</v>
+        <f t="shared" ref="L79:L110" si="12">(100 * J79) / ( J79 + K79 )</f>
+        <v>29.437749788423023</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
@@ -3772,35 +3904,35 @@
         <v>13671.3</v>
       </c>
       <c r="E80">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13660.699999999999</v>
       </c>
       <c r="F80">
         <v>9.1841390000000001</v>
       </c>
       <c r="G80">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>125461.76763729998</v>
       </c>
       <c r="H80">
-        <f t="shared" si="8"/>
-        <v>9.1841390000000001</v>
+        <f t="shared" si="10"/>
+        <v>125461.76763729998</v>
       </c>
       <c r="I80">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J80">
-        <f t="shared" ref="J80:J143" si="10">SUM(H67:H80)</f>
-        <v>30.300056470000001</v>
+        <f t="shared" ref="J80:J143" si="13">SUM(H67:H80)</f>
+        <v>413909.250334671</v>
       </c>
       <c r="K80">
-        <f t="shared" ref="K80:K143" si="11">SUM(I67:I80)</f>
-        <v>45.361139479999991</v>
+        <f t="shared" ref="K80:K143" si="14">SUM(I67:I80)</f>
+        <v>619248.48258609942</v>
       </c>
       <c r="L80">
-        <f>(100 * J80) / ( J80 + K80 )</f>
-        <v>40.047022901968816</v>
+        <f t="shared" si="12"/>
+        <v>40.062541966804638</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
@@ -3817,35 +3949,35 @@
         <v>13640.5</v>
       </c>
       <c r="E81">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13650.766666666668</v>
       </c>
       <c r="F81">
         <v>6.0037154900000003</v>
       </c>
       <c r="G81">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>81955.319287042352</v>
       </c>
       <c r="H81">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I81">
-        <f t="shared" si="9"/>
-        <v>6.0037154900000003</v>
+        <f t="shared" si="11"/>
+        <v>81955.319287042352</v>
       </c>
       <c r="J81">
-        <f t="shared" si="10"/>
-        <v>30.300056470000001</v>
+        <f t="shared" si="13"/>
+        <v>413909.250334671</v>
       </c>
       <c r="K81">
-        <f t="shared" si="11"/>
-        <v>48.38016597</v>
+        <f t="shared" si="14"/>
+        <v>660422.00627347513</v>
       </c>
       <c r="L81">
-        <f>(100 * J81) / ( J81 + K81 )</f>
-        <v>38.510384859557604</v>
+        <f t="shared" si="12"/>
+        <v>38.527153314095663</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
@@ -3862,35 +3994,35 @@
         <v>13655</v>
       </c>
       <c r="E82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13649.433333333334</v>
       </c>
       <c r="F82">
         <v>0.98204800000000003</v>
       </c>
       <c r="G82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>13404.398706133336</v>
       </c>
       <c r="H82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I82">
-        <f t="shared" si="9"/>
-        <v>0.98204800000000003</v>
+        <f t="shared" si="11"/>
+        <v>13404.398706133336</v>
       </c>
       <c r="J82">
-        <f t="shared" si="10"/>
-        <v>30.300056470000001</v>
+        <f t="shared" si="13"/>
+        <v>413909.250334671</v>
       </c>
       <c r="K82">
-        <f t="shared" si="11"/>
-        <v>35.645210469999995</v>
+        <f t="shared" si="14"/>
+        <v>486404.12765735848</v>
       </c>
       <c r="L82">
-        <f>(100 * J82) / ( J82 + K82 )</f>
-        <v>45.947280033862583</v>
+        <f t="shared" si="12"/>
+        <v>45.973908691417371</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
@@ -3907,35 +4039,35 @@
         <v>13689</v>
       </c>
       <c r="E83">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13677.666666666666</v>
       </c>
       <c r="F83">
         <v>2.447282</v>
       </c>
       <c r="G83">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>33473.107435333332</v>
       </c>
       <c r="H83">
-        <f t="shared" si="8"/>
-        <v>2.447282</v>
+        <f t="shared" si="10"/>
+        <v>33473.107435333332</v>
       </c>
       <c r="I83">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J83">
-        <f t="shared" si="10"/>
-        <v>32.747338470000003</v>
+        <f t="shared" si="13"/>
+        <v>447382.35777000431</v>
       </c>
       <c r="K83">
-        <f t="shared" si="11"/>
-        <v>23.593848480000002</v>
+        <f t="shared" si="14"/>
+        <v>322040.82373261073</v>
       </c>
       <c r="L83">
-        <f>(100 * J83) / ( J83 + K83 )</f>
-        <v>58.123266907851324</v>
+        <f t="shared" si="12"/>
+        <v>58.145162314489447</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
@@ -3952,35 +4084,35 @@
         <v>13689</v>
       </c>
       <c r="E84">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13689</v>
       </c>
       <c r="F84">
         <v>1.5158469999999999</v>
       </c>
       <c r="G84">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>20750.429583000001</v>
       </c>
       <c r="H84">
-        <f t="shared" si="8"/>
-        <v>1.5158469999999999</v>
+        <f t="shared" si="10"/>
+        <v>20750.429583000001</v>
       </c>
       <c r="I84">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J84">
-        <f t="shared" si="10"/>
-        <v>26.848063969999998</v>
+        <f t="shared" si="13"/>
+        <v>366895.12219637097</v>
       </c>
       <c r="K84">
-        <f t="shared" si="11"/>
-        <v>23.593848480000002</v>
+        <f t="shared" si="14"/>
+        <v>322040.82373261073</v>
       </c>
       <c r="L84">
-        <f>(100 * J84) / ( J84 + K84 )</f>
-        <v>53.225705898072064</v>
+        <f t="shared" si="12"/>
+        <v>53.255331553594381</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
@@ -3997,35 +4129,35 @@
         <v>13705.7</v>
       </c>
       <c r="E85">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13700.533333333335</v>
       </c>
       <c r="F85">
         <v>3.59373049</v>
       </c>
       <c r="G85">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>49236.024369261337</v>
       </c>
       <c r="H85">
-        <f t="shared" si="8"/>
-        <v>3.59373049</v>
+        <f t="shared" si="10"/>
+        <v>49236.024369261337</v>
       </c>
       <c r="I85">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J85">
-        <f t="shared" si="10"/>
-        <v>27.405170470000002</v>
+        <f t="shared" si="13"/>
+        <v>374639.32369107031</v>
       </c>
       <c r="K85">
-        <f t="shared" si="11"/>
-        <v>23.593848480000002</v>
+        <f t="shared" si="14"/>
+        <v>322040.82373261073</v>
       </c>
       <c r="L85">
-        <f>(100 * J85) / ( J85 + K85 )</f>
-        <v>53.736662065731757</v>
+        <f t="shared" si="12"/>
+        <v>53.774938912280511</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
@@ -4042,35 +4174,35 @@
         <v>13724.4</v>
       </c>
       <c r="E86">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13723.199999999999</v>
       </c>
       <c r="F86">
         <v>2.4480189999999999</v>
       </c>
       <c r="G86">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>33594.6543408</v>
       </c>
       <c r="H86">
-        <f t="shared" si="8"/>
-        <v>2.4480189999999999</v>
+        <f t="shared" si="10"/>
+        <v>33594.6543408</v>
       </c>
       <c r="I86">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J86">
-        <f t="shared" si="10"/>
-        <v>27.73038098</v>
+        <f t="shared" si="13"/>
+        <v>379172.65904348734</v>
       </c>
       <c r="K86">
-        <f t="shared" si="11"/>
-        <v>23.593848480000002</v>
+        <f t="shared" si="14"/>
+        <v>322040.82373261073</v>
       </c>
       <c r="L86">
-        <f>(100 * J86) / ( J86 + K86 )</f>
-        <v>54.029804775952698</v>
+        <f t="shared" si="12"/>
+        <v>54.073783285276555</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
@@ -4087,35 +4219,35 @@
         <v>13740.5</v>
       </c>
       <c r="E87">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13735.133333333333</v>
       </c>
       <c r="F87">
         <v>1.75375799</v>
       </c>
       <c r="G87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>24088.099827048667</v>
       </c>
       <c r="H87">
-        <f t="shared" si="8"/>
-        <v>1.75375799</v>
+        <f t="shared" si="10"/>
+        <v>24088.099827048667</v>
       </c>
       <c r="I87">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J87">
-        <f t="shared" si="10"/>
-        <v>28.14384398</v>
+        <f t="shared" si="13"/>
+        <v>384902.20227451</v>
       </c>
       <c r="K87">
-        <f t="shared" si="11"/>
-        <v>23.593848480000002</v>
+        <f t="shared" si="14"/>
+        <v>322040.82373261073</v>
       </c>
       <c r="L87">
-        <f>(100 * J87) / ( J87 + K87 )</f>
-        <v>54.397176684597731</v>
+        <f t="shared" si="12"/>
+        <v>54.446000330249106</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
@@ -4132,35 +4264,35 @@
         <v>13744</v>
       </c>
       <c r="E88">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13742.833333333334</v>
       </c>
       <c r="F88">
         <v>3.4717845000000001</v>
       </c>
       <c r="G88">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>47712.155752750004</v>
       </c>
       <c r="H88">
-        <f t="shared" si="8"/>
-        <v>3.4717845000000001</v>
+        <f t="shared" si="10"/>
+        <v>47712.155752750004</v>
       </c>
       <c r="I88">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J88">
-        <f t="shared" si="10"/>
-        <v>31.615628479999998</v>
+        <f t="shared" si="13"/>
+        <v>432614.35802725999</v>
       </c>
       <c r="K88">
-        <f t="shared" si="11"/>
-        <v>16.477109479999999</v>
+        <f t="shared" si="14"/>
+        <v>224855.82207177734</v>
       </c>
       <c r="L88">
-        <f>(100 * J88) / ( J88 + K88 )</f>
-        <v>65.73888246141351</v>
+        <f t="shared" si="12"/>
+        <v>65.799844787195298</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
@@ -4177,35 +4309,35 @@
         <v>13750.6</v>
       </c>
       <c r="E89">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13748.4</v>
       </c>
       <c r="F89">
         <v>3.9588969999999999</v>
       </c>
       <c r="G89">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>54428.499514799994</v>
       </c>
       <c r="H89">
-        <f t="shared" si="8"/>
-        <v>3.9588969999999999</v>
+        <f t="shared" si="10"/>
+        <v>54428.499514799994</v>
       </c>
       <c r="I89">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J89">
-        <f t="shared" si="10"/>
-        <v>35.574525479999998</v>
+        <f t="shared" si="13"/>
+        <v>487042.85754205997</v>
       </c>
       <c r="K89">
-        <f t="shared" si="11"/>
-        <v>14.741065490000002</v>
+        <f t="shared" si="14"/>
+        <v>201182.25820214234</v>
       </c>
       <c r="L89">
-        <f>(100 * J89) / ( J89 + K89 )</f>
-        <v>70.702787732754317</v>
+        <f t="shared" si="12"/>
+        <v>70.767957518580701</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
@@ -4222,35 +4354,35 @@
         <v>13734.5</v>
       </c>
       <c r="E90">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13736.5</v>
       </c>
       <c r="F90">
         <v>8.7237185000000004</v>
       </c>
       <c r="G90">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>119833.35917525001</v>
       </c>
       <c r="H90">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I90">
-        <f t="shared" si="9"/>
-        <v>8.7237185000000004</v>
+        <f t="shared" si="11"/>
+        <v>119833.35917525001</v>
       </c>
       <c r="J90">
-        <f t="shared" si="10"/>
-        <v>32.174065479999996</v>
+        <f t="shared" si="13"/>
+        <v>440632.92606739327</v>
       </c>
       <c r="K90">
-        <f t="shared" si="11"/>
-        <v>23.464783990000001</v>
+        <f t="shared" si="14"/>
+        <v>321015.61737739237</v>
       </c>
       <c r="L90">
-        <f>(100 * J90) / ( J90 + K90 )</f>
-        <v>57.826618965850436</v>
+        <f t="shared" si="12"/>
+        <v>57.852526583258168</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
@@ -4267,35 +4399,35 @@
         <v>13743.3</v>
       </c>
       <c r="E91">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13740.633333333331</v>
       </c>
       <c r="F91">
         <v>2.4841764899999998</v>
       </c>
       <c r="G91">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>34134.158284376994</v>
       </c>
       <c r="H91">
-        <f t="shared" si="8"/>
-        <v>2.4841764899999998</v>
+        <f t="shared" si="10"/>
+        <v>34134.158284376994</v>
       </c>
       <c r="I91">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J91">
-        <f t="shared" si="10"/>
-        <v>34.658241969999999</v>
+        <f t="shared" si="13"/>
+        <v>474767.08435177029</v>
       </c>
       <c r="K91">
-        <f t="shared" si="11"/>
-        <v>21.005007490000004</v>
+        <f t="shared" si="14"/>
+        <v>287463.93794719235</v>
       </c>
       <c r="L91">
-        <f>(100 * J91) / ( J91 + K91 )</f>
-        <v>62.264137121397582</v>
+        <f t="shared" si="12"/>
+        <v>62.286507694193133</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
@@ -4312,35 +4444,35 @@
         <v>13750.6</v>
       </c>
       <c r="E92">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13748.166666666666</v>
       </c>
       <c r="F92">
         <v>7.633648</v>
       </c>
       <c r="G92">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>104948.66497866667</v>
       </c>
       <c r="H92">
-        <f t="shared" si="8"/>
-        <v>7.633648</v>
+        <f t="shared" si="10"/>
+        <v>104948.66497866667</v>
       </c>
       <c r="I92">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J92">
-        <f t="shared" si="10"/>
-        <v>38.491281469999997</v>
+        <f t="shared" si="13"/>
+        <v>527827.56172333693</v>
       </c>
       <c r="K92">
-        <f t="shared" si="11"/>
-        <v>21.005007490000004</v>
+        <f t="shared" si="14"/>
+        <v>287463.93794719235</v>
       </c>
       <c r="L92">
-        <f>(100 * J92) / ( J92 + K92 )</f>
-        <v>64.695264432170049</v>
+        <f t="shared" si="12"/>
+        <v>64.740962212489578</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
@@ -4357,35 +4489,35 @@
         <v>13724.4</v>
       </c>
       <c r="E93">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13733.133333333333</v>
       </c>
       <c r="F93">
         <v>6.2378295000000001</v>
       </c>
       <c r="G93">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>85664.944234099996</v>
       </c>
       <c r="H93">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I93">
-        <f t="shared" si="9"/>
-        <v>6.2378295000000001</v>
+        <f t="shared" si="11"/>
+        <v>85664.944234099996</v>
       </c>
       <c r="J93">
-        <f t="shared" si="10"/>
-        <v>38.491281469999997</v>
+        <f t="shared" si="13"/>
+        <v>527827.56172333693</v>
       </c>
       <c r="K93">
-        <f t="shared" si="11"/>
-        <v>21.947311490000001</v>
+        <f t="shared" si="14"/>
+        <v>300858.02140252572</v>
       </c>
       <c r="L93">
-        <f>(100 * J93) / ( J93 + K93 )</f>
-        <v>63.686594251912254</v>
+        <f t="shared" si="12"/>
+        <v>63.694551042185722</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
@@ -4402,35 +4534,35 @@
         <v>13706.3</v>
       </c>
       <c r="E94">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13710.466666666665</v>
       </c>
       <c r="F94">
         <v>4.303299</v>
       </c>
       <c r="G94">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>59000.237496199996</v>
       </c>
       <c r="H94">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I94">
-        <f t="shared" si="9"/>
-        <v>4.303299</v>
+        <f t="shared" si="11"/>
+        <v>59000.237496199996</v>
       </c>
       <c r="J94">
-        <f t="shared" si="10"/>
-        <v>29.307142469999999</v>
+        <f t="shared" si="13"/>
+        <v>402365.79408603697</v>
       </c>
       <c r="K94">
-        <f t="shared" si="11"/>
-        <v>26.25061049</v>
+        <f t="shared" si="14"/>
+        <v>359858.25889872573</v>
       </c>
       <c r="L94">
-        <f>(100 * J94) / ( J94 + K94 )</f>
-        <v>52.750769980024764</v>
+        <f t="shared" si="12"/>
+        <v>52.788388467987708</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
@@ -4447,35 +4579,35 @@
         <v>13741.9</v>
       </c>
       <c r="E95">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13730.033333333333</v>
       </c>
       <c r="F95">
         <v>7.1243425</v>
       </c>
       <c r="G95">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>97817.460003083324</v>
       </c>
       <c r="H95">
-        <f t="shared" si="8"/>
-        <v>7.1243425</v>
+        <f t="shared" si="10"/>
+        <v>97817.460003083324</v>
       </c>
       <c r="I95">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J95">
-        <f t="shared" si="10"/>
-        <v>36.43148497</v>
+        <f t="shared" si="13"/>
+        <v>500183.25408912031</v>
       </c>
       <c r="K95">
-        <f t="shared" si="11"/>
-        <v>20.246895000000002</v>
+        <f t="shared" si="14"/>
+        <v>277902.93961168337</v>
       </c>
       <c r="L95">
-        <f>(100 * J95) / ( J95 + K95 )</f>
-        <v>64.277569311760971</v>
+        <f t="shared" si="12"/>
+        <v>64.283784770695348</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
@@ -4492,35 +4624,35 @@
         <v>13757.7</v>
       </c>
       <c r="E96">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13752.866666666669</v>
       </c>
       <c r="F96">
         <v>5.0166209999999998</v>
       </c>
       <c r="G96">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>68992.91973020001</v>
       </c>
       <c r="H96">
-        <f t="shared" si="8"/>
-        <v>5.0166209999999998</v>
+        <f t="shared" si="10"/>
+        <v>68992.91973020001</v>
       </c>
       <c r="I96">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J96">
-        <f t="shared" si="10"/>
-        <v>41.44810597</v>
+        <f t="shared" si="13"/>
+        <v>569176.17381932028</v>
       </c>
       <c r="K96">
-        <f t="shared" si="11"/>
-        <v>19.264847</v>
+        <f t="shared" si="14"/>
+        <v>264498.54090555001</v>
       </c>
       <c r="L96">
-        <f>(100 * J96) / ( J96 + K96 )</f>
-        <v>68.268967234192488</v>
+        <f t="shared" si="12"/>
+        <v>68.273172229669939</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
@@ -4537,35 +4669,35 @@
         <v>13776.9</v>
       </c>
       <c r="E97">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13770.5</v>
       </c>
       <c r="F97">
         <v>9.9623234899999993</v>
       </c>
       <c r="G97">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>137186.17561904498</v>
       </c>
       <c r="H97">
-        <f t="shared" si="8"/>
-        <v>9.9623234899999993</v>
+        <f t="shared" si="10"/>
+        <v>137186.17561904498</v>
       </c>
       <c r="I97">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J97">
-        <f t="shared" si="10"/>
-        <v>48.963147460000002</v>
+        <f t="shared" si="13"/>
+        <v>672889.24200303201</v>
       </c>
       <c r="K97">
-        <f t="shared" si="11"/>
-        <v>19.264847</v>
+        <f t="shared" si="14"/>
+        <v>264498.54090555001</v>
       </c>
       <c r="L97">
-        <f>(100 * J97) / ( J97 + K97 )</f>
-        <v>71.764013946951934</v>
+        <f t="shared" si="12"/>
+        <v>71.783444831673776</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
@@ -4582,35 +4714,35 @@
         <v>13857.2</v>
       </c>
       <c r="E98">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13830.433333333334</v>
       </c>
       <c r="F98">
         <v>8.1128885000000004</v>
       </c>
       <c r="G98">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>112204.76354001668</v>
       </c>
       <c r="H98">
-        <f t="shared" si="8"/>
-        <v>8.1128885000000004</v>
+        <f t="shared" si="10"/>
+        <v>112204.76354001668</v>
       </c>
       <c r="I98">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J98">
-        <f t="shared" si="10"/>
-        <v>55.560188959999991</v>
+        <f t="shared" si="13"/>
+        <v>764343.57596004871</v>
       </c>
       <c r="K98">
-        <f t="shared" si="11"/>
-        <v>19.264847</v>
+        <f t="shared" si="14"/>
+        <v>264498.54090555001</v>
       </c>
       <c r="L98">
-        <f>(100 * J98) / ( J98 + K98 )</f>
-        <v>74.253474451654625</v>
+        <f t="shared" si="12"/>
+        <v>74.291629729218954</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
@@ -4627,35 +4759,35 @@
         <v>13839.2</v>
       </c>
       <c r="E99">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13844.166666666666</v>
       </c>
       <c r="F99">
         <v>8.7553629999999991</v>
       </c>
       <c r="G99">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>121210.70459916665</v>
       </c>
       <c r="H99">
-        <f t="shared" si="8"/>
-        <v>8.7553629999999991</v>
+        <f t="shared" si="10"/>
+        <v>121210.70459916665</v>
       </c>
       <c r="I99">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J99">
-        <f t="shared" si="10"/>
-        <v>60.721821469999995</v>
+        <f t="shared" si="13"/>
+        <v>836318.256189954</v>
       </c>
       <c r="K99">
-        <f t="shared" si="11"/>
-        <v>19.264847</v>
+        <f t="shared" si="14"/>
+        <v>264498.54090555001</v>
       </c>
       <c r="L99">
-        <f>(100 * J99) / ( J99 + K99 )</f>
-        <v>75.914927614186695</v>
+        <f t="shared" si="12"/>
+        <v>75.972519532457412</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
@@ -4672,35 +4804,35 @@
         <v>13845</v>
       </c>
       <c r="E100">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13840.333333333334</v>
       </c>
       <c r="F100">
         <v>6.9801085</v>
       </c>
       <c r="G100">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>96607.028342833335</v>
       </c>
       <c r="H100">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I100">
-        <f t="shared" si="9"/>
-        <v>6.9801085</v>
+        <f t="shared" si="11"/>
+        <v>96607.028342833335</v>
       </c>
       <c r="J100">
-        <f t="shared" si="10"/>
-        <v>58.273802470000007</v>
+        <f t="shared" si="13"/>
+        <v>802723.60184915399</v>
       </c>
       <c r="K100">
-        <f t="shared" si="11"/>
-        <v>26.2449555</v>
+        <f t="shared" si="14"/>
+        <v>361105.56924838334</v>
       </c>
       <c r="L100">
-        <f>(100 * J100) / ( J100 + K100 )</f>
-        <v>68.94777428069203</v>
+        <f t="shared" si="12"/>
+        <v>68.972631188832779</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
@@ -4717,35 +4849,35 @@
         <v>13821.5</v>
       </c>
       <c r="E101">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13829.133333333333</v>
       </c>
       <c r="F101">
         <v>9.1306475000000002</v>
       </c>
       <c r="G101">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>126268.94169716667</v>
       </c>
       <c r="H101">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I101">
-        <f t="shared" si="9"/>
-        <v>9.1306475000000002</v>
+        <f t="shared" si="11"/>
+        <v>126268.94169716667</v>
       </c>
       <c r="J101">
-        <f t="shared" si="10"/>
-        <v>56.520044479999996</v>
+        <f t="shared" si="13"/>
+        <v>778635.50202210539</v>
       </c>
       <c r="K101">
-        <f t="shared" si="11"/>
-        <v>35.375602999999998</v>
+        <f t="shared" si="14"/>
+        <v>487374.51094554999</v>
       </c>
       <c r="L101">
-        <f>(100 * J101) / ( J101 + K101 )</f>
-        <v>61.50459355792767</v>
+        <f t="shared" si="12"/>
+        <v>61.503107720049158</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
@@ -4762,35 +4894,35 @@
         <v>13840.7</v>
       </c>
       <c r="E102">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13832.666666666666</v>
       </c>
       <c r="F102">
         <v>4.679519</v>
       </c>
       <c r="G102">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>64730.226487333333</v>
       </c>
       <c r="H102">
-        <f t="shared" si="8"/>
-        <v>4.679519</v>
+        <f t="shared" si="10"/>
+        <v>64730.226487333333</v>
       </c>
       <c r="I102">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J102">
-        <f t="shared" si="10"/>
-        <v>57.727778979999997</v>
+        <f t="shared" si="13"/>
+        <v>795653.57275668858</v>
       </c>
       <c r="K102">
-        <f t="shared" si="11"/>
-        <v>35.375602999999998</v>
+        <f t="shared" si="14"/>
+        <v>487374.51094554999</v>
       </c>
       <c r="L102">
-        <f>(100 * J102) / ( J102 + K102 )</f>
-        <v>62.003954907245785</v>
+        <f t="shared" si="12"/>
+        <v>62.013730086156215</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
@@ -4807,35 +4939,35 @@
         <v>13853.2</v>
       </c>
       <c r="E103">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13849.966666666667</v>
       </c>
       <c r="F103">
         <v>2.9766629899999999</v>
       </c>
       <c r="G103">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>41226.683189400334</v>
       </c>
       <c r="H103">
-        <f t="shared" si="8"/>
-        <v>2.9766629899999999</v>
+        <f t="shared" si="10"/>
+        <v>41226.683189400334</v>
       </c>
       <c r="I103">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J103">
-        <f t="shared" si="10"/>
-        <v>56.745544970000005</v>
+        <f t="shared" si="13"/>
+        <v>782451.75643128902</v>
       </c>
       <c r="K103">
-        <f t="shared" si="11"/>
-        <v>35.375602999999998</v>
+        <f t="shared" si="14"/>
+        <v>487374.51094554999</v>
       </c>
       <c r="L103">
-        <f>(100 * J103) / ( J103 + K103 )</f>
-        <v>61.598825264834566</v>
+        <f t="shared" si="12"/>
+        <v>61.618803810670059</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
@@ -4852,35 +4984,35 @@
         <v>13880.2</v>
       </c>
       <c r="E104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13871.433333333334</v>
       </c>
       <c r="F104">
         <v>6.4185109899999997</v>
       </c>
       <c r="G104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>89033.947297052335</v>
       </c>
       <c r="H104">
-        <f t="shared" si="8"/>
-        <v>6.4185109899999997</v>
+        <f t="shared" si="10"/>
+        <v>89033.947297052335</v>
       </c>
       <c r="I104">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J104">
-        <f t="shared" si="10"/>
-        <v>63.164055960000006</v>
+        <f t="shared" si="13"/>
+        <v>871485.70372834138</v>
       </c>
       <c r="K104">
-        <f t="shared" si="11"/>
-        <v>26.651884500000001</v>
+        <f t="shared" si="14"/>
+        <v>367541.1517703</v>
       </c>
       <c r="L104">
-        <f>(100 * J104) / ( J104 + K104 )</f>
-        <v>70.326108746955043</v>
+        <f t="shared" si="12"/>
+        <v>70.336304645924358</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
@@ -4897,35 +5029,35 @@
         <v>13878.5</v>
       </c>
       <c r="E105">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13882.833333333334</v>
       </c>
       <c r="F105">
         <v>9.2393339900000004</v>
       </c>
       <c r="G105">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>128268.13389417168</v>
       </c>
       <c r="H105">
-        <f t="shared" si="8"/>
-        <v>9.2393339900000004</v>
+        <f t="shared" si="10"/>
+        <v>128268.13389417168</v>
       </c>
       <c r="I105">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J105">
-        <f t="shared" si="10"/>
-        <v>69.919213459999995</v>
+        <f t="shared" si="13"/>
+        <v>965619.67933813599</v>
       </c>
       <c r="K105">
-        <f t="shared" si="11"/>
-        <v>26.651884500000001</v>
+        <f t="shared" si="14"/>
+        <v>367541.1517703</v>
       </c>
       <c r="L105">
-        <f>(100 * J105) / ( J105 + K105 )</f>
-        <v>72.401800266328863</v>
+        <f t="shared" si="12"/>
+        <v>72.430846812029912</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
@@ -4942,35 +5074,35 @@
         <v>13854.8</v>
       </c>
       <c r="E106">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13859.633333333331</v>
       </c>
       <c r="F106">
         <v>4.6099030000000001</v>
       </c>
       <c r="G106">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>63891.565282233329</v>
       </c>
       <c r="H106">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I106">
-        <f t="shared" si="9"/>
-        <v>4.6099030000000001</v>
+        <f t="shared" si="11"/>
+        <v>63891.565282233329</v>
       </c>
       <c r="J106">
-        <f t="shared" si="10"/>
-        <v>62.285565460000001</v>
+        <f t="shared" si="13"/>
+        <v>860671.01435946941</v>
       </c>
       <c r="K106">
-        <f t="shared" si="11"/>
-        <v>31.261787500000001</v>
+        <f t="shared" si="14"/>
+        <v>431432.71705253335</v>
       </c>
       <c r="L106">
-        <f>(100 * J106) / ( J106 + K106 )</f>
-        <v>66.581857732129251</v>
+        <f t="shared" si="12"/>
+        <v>66.610055635311383</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
@@ -4987,35 +5119,35 @@
         <v>13845.6</v>
       </c>
       <c r="E107">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13842.733333333332</v>
       </c>
       <c r="F107">
         <v>6.4817369899999999</v>
       </c>
       <c r="G107">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>89724.956689372659</v>
       </c>
       <c r="H107">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I107">
-        <f t="shared" si="9"/>
-        <v>6.4817369899999999</v>
+        <f t="shared" si="11"/>
+        <v>89724.956689372659</v>
       </c>
       <c r="J107">
-        <f t="shared" si="10"/>
-        <v>62.285565460000001</v>
+        <f t="shared" si="13"/>
+        <v>860671.01435946941</v>
       </c>
       <c r="K107">
-        <f t="shared" si="11"/>
-        <v>31.505694989999995</v>
+        <f t="shared" si="14"/>
+        <v>435492.72950780601</v>
       </c>
       <c r="L107">
-        <f>(100 * J107) / ( J107 + K107 )</f>
-        <v>66.408709256236463</v>
+        <f t="shared" si="12"/>
+        <v>66.401410966144141</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
@@ -5032,35 +5164,35 @@
         <v>13806.3</v>
       </c>
       <c r="E108">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13813.266666666668</v>
       </c>
       <c r="F108">
         <v>7.1067745000000002</v>
       </c>
       <c r="G108">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>98167.771308366675</v>
       </c>
       <c r="H108">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I108">
-        <f t="shared" si="9"/>
-        <v>7.1067745000000002</v>
+        <f t="shared" si="11"/>
+        <v>98167.771308366675</v>
       </c>
       <c r="J108">
-        <f t="shared" si="10"/>
-        <v>62.285565460000001</v>
+        <f t="shared" si="13"/>
+        <v>860671.01435946941</v>
       </c>
       <c r="K108">
-        <f t="shared" si="11"/>
-        <v>34.30917049</v>
+        <f t="shared" si="14"/>
+        <v>474660.26331997267</v>
       </c>
       <c r="L108">
-        <f>(100 * J108) / ( J108 + K108 )</f>
-        <v>64.481324833519565</v>
+        <f t="shared" si="12"/>
+        <v>64.453744830657755</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
@@ -5077,35 +5209,35 @@
         <v>13809</v>
       </c>
       <c r="E109">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13802.366666666667</v>
       </c>
       <c r="F109">
         <v>5.2338259899999997</v>
       </c>
       <c r="G109">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>72239.18538350967</v>
       </c>
       <c r="H109">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I109">
-        <f t="shared" si="9"/>
-        <v>5.2338259899999997</v>
+        <f t="shared" si="11"/>
+        <v>72239.18538350967</v>
       </c>
       <c r="J109">
-        <f t="shared" si="10"/>
-        <v>55.161222960000003</v>
+        <f t="shared" si="13"/>
+        <v>762853.55435638607</v>
       </c>
       <c r="K109">
-        <f t="shared" si="11"/>
-        <v>39.542996479999999</v>
+        <f t="shared" si="14"/>
+        <v>546899.44870348228</v>
       </c>
       <c r="L109">
-        <f>(100 * J109) / ( J109 + K109 )</f>
-        <v>58.24579230595684</v>
+        <f t="shared" si="12"/>
+        <v>58.244077514935569</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
@@ -5122,35 +5254,35 @@
         <v>13837.2</v>
       </c>
       <c r="E110">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13823.566666666666</v>
       </c>
       <c r="F110">
         <v>10.44245849</v>
       </c>
       <c r="G110">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>144352.02110041433</v>
       </c>
       <c r="H110">
-        <f t="shared" si="8"/>
-        <v>10.44245849</v>
+        <f t="shared" si="10"/>
+        <v>144352.02110041433</v>
       </c>
       <c r="I110">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J110">
-        <f t="shared" si="10"/>
-        <v>60.587060449999996</v>
+        <f t="shared" si="13"/>
+        <v>838212.65572660032</v>
       </c>
       <c r="K110">
-        <f t="shared" si="11"/>
-        <v>39.542996479999999</v>
+        <f t="shared" si="14"/>
+        <v>546899.44870348228</v>
       </c>
       <c r="L110">
-        <f>(100 * J110) / ( J110 + K110 )</f>
-        <v>60.508365127921437</v>
+        <f t="shared" si="12"/>
+        <v>60.515871101385741</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
@@ -5167,35 +5299,35 @@
         <v>13821.5</v>
       </c>
       <c r="E111">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13819.833333333334</v>
       </c>
       <c r="F111">
         <v>12.257182</v>
       </c>
       <c r="G111">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>169392.21237633334</v>
       </c>
       <c r="H111">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I111">
-        <f t="shared" si="9"/>
-        <v>12.257182</v>
+        <f t="shared" si="11"/>
+        <v>169392.21237633334</v>
       </c>
       <c r="J111">
-        <f t="shared" si="10"/>
-        <v>50.62473696</v>
+        <f t="shared" si="13"/>
+        <v>701026.4801075554</v>
       </c>
       <c r="K111">
-        <f t="shared" si="11"/>
-        <v>51.80017848</v>
+        <f t="shared" si="14"/>
+        <v>716291.66107981559</v>
       </c>
       <c r="L111">
-        <f>(100 * J111) / ( J111 + K111 )</f>
-        <v>49.426193560936561</v>
+        <f t="shared" ref="L111:L142" si="15">(100 * J111) / ( J111 + K111 )</f>
+        <v>49.461476554605035</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
@@ -5212,35 +5344,35 @@
         <v>13805.8</v>
       </c>
       <c r="E112">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13817.633333333331</v>
       </c>
       <c r="F112">
         <v>6.9288590000000001</v>
       </c>
       <c r="G112">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>95740.433080366653</v>
       </c>
       <c r="H112">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I112">
-        <f t="shared" si="9"/>
-        <v>6.9288590000000001</v>
+        <f t="shared" si="11"/>
+        <v>95740.433080366653</v>
       </c>
       <c r="J112">
-        <f t="shared" si="10"/>
-        <v>42.511848459999996</v>
+        <f t="shared" si="13"/>
+        <v>588821.71656753868</v>
       </c>
       <c r="K112">
-        <f t="shared" si="11"/>
-        <v>58.729037480000002</v>
+        <f t="shared" si="14"/>
+        <v>812032.09416018229</v>
       </c>
       <c r="L112">
-        <f>(100 * J112) / ( J112 + K112 )</f>
-        <v>41.990790642818425</v>
+        <f t="shared" si="15"/>
+        <v>42.033059556846638</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
@@ -5257,35 +5389,35 @@
         <v>13863.7</v>
       </c>
       <c r="E113">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13844.4</v>
       </c>
       <c r="F113">
         <v>11.0761685</v>
       </c>
       <c r="G113">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>153342.90718139999</v>
       </c>
       <c r="H113">
-        <f t="shared" si="8"/>
-        <v>11.0761685</v>
+        <f t="shared" si="10"/>
+        <v>153342.90718139999</v>
       </c>
       <c r="I113">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J113">
-        <f t="shared" si="10"/>
-        <v>44.832653960000002</v>
+        <f t="shared" si="13"/>
+        <v>620953.91914977203</v>
       </c>
       <c r="K113">
-        <f t="shared" si="11"/>
-        <v>58.729037480000002</v>
+        <f t="shared" si="14"/>
+        <v>812032.09416018229</v>
       </c>
       <c r="L113">
-        <f>(100 * J113) / ( J113 + K113 )</f>
-        <v>43.29077029991776</v>
+        <f t="shared" si="15"/>
+        <v>43.332866712039568</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
@@ -5302,35 +5434,35 @@
         <v>13857.9</v>
       </c>
       <c r="E114">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13857.199999999999</v>
       </c>
       <c r="F114">
         <v>12.07368949</v>
       </c>
       <c r="G114">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>167307.53000082797</v>
       </c>
       <c r="H114">
-        <f t="shared" si="8"/>
-        <v>12.07368949</v>
+        <f t="shared" si="10"/>
+        <v>167307.53000082797</v>
       </c>
       <c r="I114">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J114">
-        <f t="shared" si="10"/>
-        <v>56.906343450000001</v>
+        <f t="shared" si="13"/>
+        <v>788261.4491506</v>
       </c>
       <c r="K114">
-        <f t="shared" si="11"/>
-        <v>51.748928980000002</v>
+        <f t="shared" si="14"/>
+        <v>715425.06581734901</v>
       </c>
       <c r="L114">
-        <f>(100 * J114) / ( J114 + K114 )</f>
-        <v>52.373292319211949</v>
+        <f t="shared" si="15"/>
+        <v>52.42192713069597</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
@@ -5347,35 +5479,35 @@
         <v>13845.6</v>
       </c>
       <c r="E115">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13851.366666666667</v>
       </c>
       <c r="F115">
         <v>4.8758350000000004</v>
       </c>
       <c r="G115">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>67536.978391166675</v>
       </c>
       <c r="H115">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I115">
-        <f t="shared" si="9"/>
-        <v>4.8758350000000004</v>
+        <f t="shared" si="11"/>
+        <v>67536.978391166675</v>
       </c>
       <c r="J115">
-        <f t="shared" si="10"/>
-        <v>56.906343450000001</v>
+        <f t="shared" si="13"/>
+        <v>788261.4491506</v>
       </c>
       <c r="K115">
-        <f t="shared" si="11"/>
-        <v>47.49411648000001</v>
+        <f t="shared" si="14"/>
+        <v>656693.10251134902</v>
       </c>
       <c r="L115">
-        <f>(100 * J115) / ( J115 + K115 )</f>
-        <v>54.507751678637646</v>
+        <f t="shared" si="15"/>
+        <v>54.552681137545967</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
@@ -5392,35 +5524,35 @@
         <v>13852</v>
       </c>
       <c r="E116">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13849.866666666667</v>
       </c>
       <c r="F116">
         <v>3.6505105000000002</v>
       </c>
       <c r="G116">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>50559.083690266671</v>
       </c>
       <c r="H116">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I116">
-        <f t="shared" si="9"/>
-        <v>3.6505105000000002</v>
+        <f t="shared" si="11"/>
+        <v>50559.083690266671</v>
       </c>
       <c r="J116">
-        <f t="shared" si="10"/>
-        <v>52.226824450000002</v>
+        <f t="shared" si="13"/>
+        <v>723531.22266326658</v>
       </c>
       <c r="K116">
-        <f t="shared" si="11"/>
-        <v>51.144626980000012</v>
+        <f t="shared" si="14"/>
+        <v>707252.18620161572</v>
       </c>
       <c r="L116">
-        <f>(100 * J116) / ( J116 + K116 )</f>
-        <v>50.523450844033484</v>
+        <f t="shared" si="15"/>
+        <v>50.56888542181818</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
@@ -5437,35 +5569,35 @@
         <v>13813.6</v>
       </c>
       <c r="E117">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13818.866666666667</v>
       </c>
       <c r="F117">
         <v>6.4430909999999999</v>
       </c>
       <c r="G117">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>89036.215450200005</v>
       </c>
       <c r="H117">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I117">
-        <f t="shared" si="9"/>
-        <v>6.4430909999999999</v>
+        <f t="shared" si="11"/>
+        <v>89036.215450200005</v>
       </c>
       <c r="J117">
-        <f t="shared" si="10"/>
-        <v>49.250161460000001</v>
+        <f t="shared" si="13"/>
+        <v>682304.53947386635</v>
       </c>
       <c r="K117">
-        <f t="shared" si="11"/>
-        <v>57.587717980000015</v>
+        <f t="shared" si="14"/>
+        <v>796288.40165181574</v>
       </c>
       <c r="L117">
-        <f>(100 * J117) / ( J117 + K117 )</f>
-        <v>46.098033504735376</v>
+        <f t="shared" si="15"/>
+        <v>46.145529340510336</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
@@ -5482,35 +5614,35 @@
         <v>13832.7</v>
       </c>
       <c r="E118">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13818.1</v>
       </c>
       <c r="F118">
         <v>12.07254249</v>
       </c>
       <c r="G118">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>166819.59938106901</v>
       </c>
       <c r="H118">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I118">
-        <f t="shared" si="9"/>
-        <v>12.07254249</v>
+        <f t="shared" si="11"/>
+        <v>166819.59938106901</v>
       </c>
       <c r="J118">
-        <f t="shared" si="10"/>
-        <v>42.83165047</v>
+        <f t="shared" si="13"/>
+        <v>593270.59217681398</v>
       </c>
       <c r="K118">
-        <f t="shared" si="11"/>
-        <v>69.660260470000011</v>
+        <f t="shared" si="14"/>
+        <v>963108.0010328847</v>
       </c>
       <c r="L118">
-        <f>(100 * J118) / ( J118 + K118 )</f>
-        <v>38.075315915688542</v>
+        <f t="shared" si="15"/>
+        <v>38.118655368634954</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
@@ -5527,35 +5659,35 @@
         <v>13811.7</v>
       </c>
       <c r="E119">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13819.800000000001</v>
       </c>
       <c r="F119">
         <v>22.37246249</v>
       </c>
       <c r="G119">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>309182.95711930201</v>
       </c>
       <c r="H119">
-        <f t="shared" si="8"/>
-        <v>22.37246249</v>
+        <f t="shared" si="10"/>
+        <v>309182.95711930201</v>
       </c>
       <c r="I119">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J119">
-        <f t="shared" si="10"/>
-        <v>55.964778969999998</v>
+        <f t="shared" si="13"/>
+        <v>774185.41540194431</v>
       </c>
       <c r="K119">
-        <f t="shared" si="11"/>
-        <v>69.660260470000011</v>
+        <f t="shared" si="14"/>
+        <v>963108.0010328847</v>
       </c>
       <c r="L119">
-        <f>(100 * J119) / ( J119 + K119 )</f>
-        <v>44.549063800875011</v>
+        <f t="shared" si="15"/>
+        <v>44.562732355866629</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
@@ -5572,35 +5704,35 @@
         <v>13811.9</v>
       </c>
       <c r="E120">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13809.033333333333</v>
       </c>
       <c r="F120">
         <v>16.537548489999999</v>
       </c>
       <c r="G120">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>228367.55835002632</v>
       </c>
       <c r="H120">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I120">
-        <f t="shared" si="9"/>
-        <v>16.537548489999999</v>
+        <f t="shared" si="11"/>
+        <v>228367.55835002632</v>
       </c>
       <c r="J120">
-        <f t="shared" si="10"/>
-        <v>55.964778969999998</v>
+        <f t="shared" si="13"/>
+        <v>774185.41540194431</v>
       </c>
       <c r="K120">
-        <f t="shared" si="11"/>
-        <v>81.587905960000001</v>
+        <f t="shared" si="14"/>
+        <v>1127583.9941006778</v>
       </c>
       <c r="L120">
-        <f>(100 * J120) / ( J120 + K120 )</f>
-        <v>40.686068031663829</v>
+        <f t="shared" si="15"/>
+        <v>40.708690103729261</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
@@ -5617,35 +5749,35 @@
         <v>13844.6</v>
       </c>
       <c r="E121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13833.633333333333</v>
       </c>
       <c r="F121">
         <v>3.9669729899999999</v>
       </c>
       <c r="G121">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>54877.649786896996</v>
       </c>
       <c r="H121">
-        <f t="shared" si="8"/>
-        <v>3.9669729899999999</v>
+        <f t="shared" si="10"/>
+        <v>54877.649786896996</v>
       </c>
       <c r="I121">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J121">
-        <f t="shared" si="10"/>
-        <v>59.93175196</v>
+        <f t="shared" si="13"/>
+        <v>829063.06518884131</v>
       </c>
       <c r="K121">
-        <f t="shared" si="11"/>
-        <v>75.106168969999999</v>
+        <f t="shared" si="14"/>
+        <v>1037859.0374113051</v>
       </c>
       <c r="L121">
-        <f>(100 * J121) / ( J121 + K121 )</f>
-        <v>44.38142378618744</v>
+        <f t="shared" si="15"/>
+        <v>44.408015954932871</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
@@ -5662,35 +5794,35 @@
         <v>13826.7</v>
       </c>
       <c r="E122">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13837.233333333332</v>
       </c>
       <c r="F122">
         <v>2.4488075</v>
       </c>
       <c r="G122">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>33884.72076591666</v>
       </c>
       <c r="H122">
-        <f t="shared" si="8"/>
-        <v>2.4488075</v>
+        <f t="shared" si="10"/>
+        <v>33884.72076591666</v>
       </c>
       <c r="I122">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J122">
-        <f t="shared" si="10"/>
-        <v>62.380559460000001</v>
+        <f t="shared" si="13"/>
+        <v>862947.78595475794</v>
       </c>
       <c r="K122">
-        <f t="shared" si="11"/>
-        <v>67.999394469999999</v>
+        <f t="shared" si="14"/>
+        <v>939691.26610293845</v>
       </c>
       <c r="L122">
-        <f>(100 * J122) / ( J122 + K122 )</f>
-        <v>47.845207472225098</v>
+        <f t="shared" si="15"/>
+        <v>47.871357550459734</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
@@ -5707,35 +5839,35 @@
         <v>13816.8</v>
       </c>
       <c r="E123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13820.1</v>
       </c>
       <c r="F123">
         <v>4.0302989900000004</v>
       </c>
       <c r="G123">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>55699.135071699005</v>
       </c>
       <c r="H123">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I123">
-        <f t="shared" si="9"/>
-        <v>4.0302989900000004</v>
+        <f t="shared" si="11"/>
+        <v>55699.135071699005</v>
       </c>
       <c r="J123">
-        <f t="shared" si="10"/>
-        <v>62.380559460000001</v>
+        <f t="shared" si="13"/>
+        <v>862947.78595475794</v>
       </c>
       <c r="K123">
-        <f t="shared" si="11"/>
-        <v>66.79586746999999</v>
+        <f t="shared" si="14"/>
+        <v>923151.21579112764</v>
       </c>
       <c r="L123">
-        <f>(100 * J123) / ( J123 + K123 )</f>
-        <v>48.290977651676101</v>
+        <f t="shared" si="15"/>
+        <v>48.314667054359198</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
@@ -5752,35 +5884,35 @@
         <v>13792</v>
       </c>
       <c r="E124">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13800.266666666668</v>
       </c>
       <c r="F124">
         <v>2.6094015000000002</v>
       </c>
       <c r="G124">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>36010.436540400005</v>
       </c>
       <c r="H124">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I124">
-        <f t="shared" si="9"/>
-        <v>2.6094015000000002</v>
+        <f t="shared" si="11"/>
+        <v>36010.436540400005</v>
       </c>
       <c r="J124">
-        <f t="shared" si="10"/>
-        <v>51.938100970000008</v>
+        <f t="shared" si="13"/>
+        <v>718595.76485434361</v>
       </c>
       <c r="K124">
-        <f t="shared" si="11"/>
-        <v>69.405268969999995</v>
+        <f t="shared" si="14"/>
+        <v>959161.65233152767</v>
       </c>
       <c r="L124">
-        <f>(100 * J124) / ( J124 + K124 )</f>
-        <v>42.802586573688828</v>
+        <f t="shared" si="15"/>
+        <v>42.830730920543651</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
@@ -5797,35 +5929,35 @@
         <v>13752.4</v>
       </c>
       <c r="E125">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13765.6</v>
       </c>
       <c r="F125">
         <v>4.3651684900000003</v>
       </c>
       <c r="G125">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>60089.163365944005</v>
       </c>
       <c r="H125">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I125">
-        <f t="shared" si="9"/>
-        <v>4.3651684900000003</v>
+        <f t="shared" si="11"/>
+        <v>60089.163365944005</v>
       </c>
       <c r="J125">
-        <f t="shared" si="10"/>
-        <v>51.938100970000008</v>
+        <f t="shared" si="13"/>
+        <v>718595.76485434361</v>
       </c>
       <c r="K125">
-        <f t="shared" si="11"/>
-        <v>61.513255459999996</v>
+        <f t="shared" si="14"/>
+        <v>849858.60332113842</v>
       </c>
       <c r="L125">
-        <f>(100 * J125) / ( J125 + K125 )</f>
-        <v>45.780061697231488</v>
+        <f t="shared" si="15"/>
+        <v>45.815535308831222</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
@@ -5842,35 +5974,35 @@
         <v>13750.8</v>
       </c>
       <c r="E126">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13751.033333333333</v>
       </c>
       <c r="F126">
         <v>1.9569110000000001</v>
       </c>
       <c r="G126">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>26909.548391366665</v>
       </c>
       <c r="H126">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I126">
-        <f t="shared" si="9"/>
-        <v>1.9569110000000001</v>
+        <f t="shared" si="11"/>
+        <v>26909.548391366665</v>
       </c>
       <c r="J126">
-        <f t="shared" si="10"/>
-        <v>51.938100970000008</v>
+        <f t="shared" si="13"/>
+        <v>718595.76485434361</v>
       </c>
       <c r="K126">
-        <f t="shared" si="11"/>
-        <v>56.541307459999992</v>
+        <f t="shared" si="14"/>
+        <v>781027.71863213845</v>
       </c>
       <c r="L126">
-        <f>(100 * J126) / ( J126 + K126 )</f>
-        <v>47.878304022569239</v>
+        <f t="shared" si="15"/>
+        <v>47.918412372662821</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
@@ -5887,35 +6019,35 @@
         <v>13776</v>
       </c>
       <c r="E127">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13770.866666666667</v>
       </c>
       <c r="F127">
         <v>4.405303</v>
       </c>
       <c r="G127">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>60664.840239266669</v>
       </c>
       <c r="H127">
-        <f t="shared" si="8"/>
-        <v>4.405303</v>
+        <f t="shared" si="10"/>
+        <v>60664.840239266669</v>
       </c>
       <c r="I127">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J127">
-        <f t="shared" si="10"/>
-        <v>45.267235470000003</v>
+        <f t="shared" si="13"/>
+        <v>625917.69791221025</v>
       </c>
       <c r="K127">
-        <f t="shared" si="11"/>
-        <v>56.541307459999992</v>
+        <f t="shared" si="14"/>
+        <v>781027.71863213845</v>
       </c>
       <c r="L127">
-        <f>(100 * J127) / ( J127 + K127 )</f>
-        <v>44.463101196845713</v>
+        <f t="shared" si="15"/>
+        <v>44.487702973548906</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
@@ -5932,35 +6064,35 @@
         <v>13760.8</v>
       </c>
       <c r="E128">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13765.866666666667</v>
       </c>
       <c r="F128">
         <v>4.9737494900000003</v>
       </c>
       <c r="G128">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>68467.972312741345</v>
       </c>
       <c r="H128">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I128">
-        <f t="shared" si="9"/>
-        <v>4.9737494900000003</v>
+        <f t="shared" si="11"/>
+        <v>68467.972312741345</v>
       </c>
       <c r="J128">
-        <f t="shared" si="10"/>
-        <v>33.193545979999996</v>
+        <f t="shared" si="13"/>
+        <v>458610.16791138233</v>
       </c>
       <c r="K128">
-        <f t="shared" si="11"/>
-        <v>61.515056949999995</v>
+        <f t="shared" si="14"/>
+        <v>849495.69094487978</v>
       </c>
       <c r="L128">
-        <f>(100 * J128) / ( J128 + K128 )</f>
-        <v>35.048079005593245</v>
+        <f t="shared" si="15"/>
+        <v>35.059102044873228</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
@@ -5977,35 +6109,35 @@
         <v>13751.6</v>
       </c>
       <c r="E129">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13754.366666666667</v>
       </c>
       <c r="F129">
         <v>3.3731129900000001</v>
       </c>
       <c r="G129">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>46395.032872556338</v>
       </c>
       <c r="H129">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I129">
-        <f t="shared" si="9"/>
-        <v>3.3731129900000001</v>
+        <f t="shared" si="11"/>
+        <v>46395.032872556338</v>
       </c>
       <c r="J129">
-        <f t="shared" si="10"/>
-        <v>33.193545979999996</v>
+        <f t="shared" si="13"/>
+        <v>458610.16791138233</v>
       </c>
       <c r="K129">
-        <f t="shared" si="11"/>
-        <v>60.012334940000002</v>
+        <f t="shared" si="14"/>
+        <v>828353.74542626936</v>
       </c>
       <c r="L129">
-        <f>(100 * J129) / ( J129 + K129 )</f>
-        <v>35.613145492922825</v>
+        <f t="shared" si="15"/>
+        <v>35.635044864778585</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
@@ -6022,35 +6154,35 @@
         <v>13706.6</v>
       </c>
       <c r="E130">
-        <f t="shared" ref="E130:E193" si="12">(B130+C130+D130)/3</f>
+        <f t="shared" ref="E130:E193" si="16">(B130+C130+D130)/3</f>
         <v>13721.6</v>
       </c>
       <c r="F130">
         <v>2.7503345000000001</v>
       </c>
       <c r="G130">
-        <f t="shared" ref="G130:G193" si="13">E130*F130</f>
+        <f t="shared" ref="G130:G193" si="17">E130*F130</f>
         <v>37738.989875200001</v>
       </c>
       <c r="H130">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I130">
-        <f t="shared" si="9"/>
-        <v>2.7503345000000001</v>
+        <f t="shared" si="11"/>
+        <v>37738.989875200001</v>
       </c>
       <c r="J130">
-        <f t="shared" si="10"/>
-        <v>33.193545979999996</v>
+        <f t="shared" si="13"/>
+        <v>458610.16791138233</v>
       </c>
       <c r="K130">
-        <f t="shared" si="11"/>
-        <v>59.11215894</v>
+        <f t="shared" si="14"/>
+        <v>815533.65161120275</v>
       </c>
       <c r="L130">
-        <f>(100 * J130) / ( J130 + K130 )</f>
-        <v>35.960449041333206</v>
+        <f t="shared" si="15"/>
+        <v>35.993595140870447</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
@@ -6067,35 +6199,35 @@
         <v>13706.6</v>
       </c>
       <c r="E131">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>13706.6</v>
       </c>
       <c r="F131">
         <v>1.138093</v>
       </c>
       <c r="G131">
+        <f t="shared" si="17"/>
+        <v>15599.3855138</v>
+      </c>
+      <c r="H131">
+        <f t="shared" ref="H131:H194" si="18">IF(E131&gt;E130,G131,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I131">
+        <f t="shared" ref="I131:I194" si="19">IF(E131&lt;E130,G131,0)</f>
+        <v>15599.3855138</v>
+      </c>
+      <c r="J131">
         <f t="shared" si="13"/>
-        <v>15599.3855138</v>
-      </c>
-      <c r="H131">
-        <f t="shared" ref="H131:H194" si="14">IF(E131&gt;E130,F131,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I131">
-        <f t="shared" ref="I131:I194" si="15">IF(E131&lt;E130,F131,0)</f>
-        <v>1.138093</v>
-      </c>
-      <c r="J131">
-        <f t="shared" si="10"/>
-        <v>33.193545979999996</v>
+        <v>458610.16791138233</v>
       </c>
       <c r="K131">
-        <f t="shared" si="11"/>
-        <v>53.807160940000003</v>
+        <f t="shared" si="14"/>
+        <v>742096.82167480257</v>
       </c>
       <c r="L131">
-        <f>(100 * J131) / ( J131 + K131 )</f>
-        <v>38.153191112024579</v>
+        <f t="shared" si="15"/>
+        <v>38.195011096707198</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
@@ -6112,35 +6244,35 @@
         <v>13714.5</v>
       </c>
       <c r="E132">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>13712.4</v>
       </c>
       <c r="F132">
         <v>4.5998439900000001</v>
       </c>
       <c r="G132">
+        <f t="shared" si="17"/>
+        <v>63074.900728476001</v>
+      </c>
+      <c r="H132">
+        <f t="shared" si="18"/>
+        <v>63074.900728476001</v>
+      </c>
+      <c r="I132">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="J132">
         <f t="shared" si="13"/>
-        <v>63074.900728476001</v>
-      </c>
-      <c r="H132">
+        <v>521685.06863985833</v>
+      </c>
+      <c r="K132">
         <f t="shared" si="14"/>
-        <v>4.5998439900000001</v>
-      </c>
-      <c r="I132">
+        <v>575277.22229373362</v>
+      </c>
+      <c r="L132">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="J132">
-        <f t="shared" si="10"/>
-        <v>37.793389969999993</v>
-      </c>
-      <c r="K132">
-        <f t="shared" si="11"/>
-        <v>41.734618449999999</v>
-      </c>
-      <c r="L132">
-        <f>(100 * J132) / ( J132 + K132 )</f>
-        <v>47.522112927067312</v>
+        <v>47.557247222770776</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
@@ -6157,35 +6289,35 @@
         <v>13757.1</v>
       </c>
       <c r="E133">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>13743.199999999999</v>
       </c>
       <c r="F133">
         <v>6.5028674999999998</v>
       </c>
       <c r="G133">
+        <f t="shared" si="17"/>
+        <v>89370.208625999992</v>
+      </c>
+      <c r="H133">
+        <f t="shared" si="18"/>
+        <v>89370.208625999992</v>
+      </c>
+      <c r="I133">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="J133">
         <f t="shared" si="13"/>
-        <v>89370.208625999992</v>
-      </c>
-      <c r="H133">
+        <v>301872.3201465563</v>
+      </c>
+      <c r="K133">
         <f t="shared" si="14"/>
-        <v>6.5028674999999998</v>
-      </c>
-      <c r="I133">
+        <v>575277.22229373362</v>
+      </c>
+      <c r="L133">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="J133">
-        <f t="shared" si="10"/>
-        <v>21.92379498</v>
-      </c>
-      <c r="K133">
-        <f t="shared" si="11"/>
-        <v>41.734618449999999</v>
-      </c>
-      <c r="L133">
-        <f>(100 * J133) / ( J133 + K133 )</f>
-        <v>34.439744565905379</v>
+        <v>34.415148790561631</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
@@ -6202,35 +6334,35 @@
         <v>13765.7</v>
       </c>
       <c r="E134">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>13776.633333333333</v>
       </c>
       <c r="F134">
         <v>5.0176575000000003</v>
       </c>
       <c r="G134">
+        <f t="shared" si="17"/>
+        <v>69126.427569749998</v>
+      </c>
+      <c r="H134">
+        <f t="shared" si="18"/>
+        <v>69126.427569749998</v>
+      </c>
+      <c r="I134">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="J134">
         <f t="shared" si="13"/>
-        <v>69126.427569749998</v>
-      </c>
-      <c r="H134">
+        <v>370998.7477163063</v>
+      </c>
+      <c r="K134">
         <f t="shared" si="14"/>
-        <v>5.0176575000000003</v>
-      </c>
-      <c r="I134">
+        <v>346909.66394370742</v>
+      </c>
+      <c r="L134">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="J134">
-        <f t="shared" si="10"/>
-        <v>26.941452480000002</v>
-      </c>
-      <c r="K134">
-        <f t="shared" si="11"/>
-        <v>25.197069960000004</v>
-      </c>
-      <c r="L134">
-        <f>(100 * J134) / ( J134 + K134 )</f>
-        <v>51.672834632020312</v>
+        <v>51.677726808973993</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
@@ -6247,35 +6379,35 @@
         <v>13757.1</v>
       </c>
       <c r="E135">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>13769.033333333333</v>
       </c>
       <c r="F135">
         <v>5.0969624900000001</v>
       </c>
       <c r="G135">
+        <f t="shared" si="17"/>
+        <v>70180.246423559671</v>
+      </c>
+      <c r="H135">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I135">
+        <f t="shared" si="19"/>
+        <v>70180.246423559671</v>
+      </c>
+      <c r="J135">
         <f t="shared" si="13"/>
-        <v>70180.246423559671</v>
-      </c>
-      <c r="H135">
+        <v>316121.0979294093</v>
+      </c>
+      <c r="K135">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I135">
+        <v>417089.91036726709</v>
+      </c>
+      <c r="L135">
         <f t="shared" si="15"/>
-        <v>5.0969624900000001</v>
-      </c>
-      <c r="J135">
-        <f t="shared" si="10"/>
-        <v>22.97447949</v>
-      </c>
-      <c r="K135">
-        <f t="shared" si="11"/>
-        <v>30.294032450000003</v>
-      </c>
-      <c r="L135">
-        <f>(100 * J135) / ( J135 + K135 )</f>
-        <v>43.129568770154002</v>
+        <v>43.114614258696236</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
@@ -6292,35 +6424,35 @@
         <v>13739.5</v>
       </c>
       <c r="E136">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>13744.866666666667</v>
       </c>
       <c r="F136">
         <v>5.9472899999999997</v>
       </c>
       <c r="G136">
+        <f t="shared" si="17"/>
+        <v>81744.708077999996</v>
+      </c>
+      <c r="H136">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I136">
+        <f t="shared" si="19"/>
+        <v>81744.708077999996</v>
+      </c>
+      <c r="J136">
         <f t="shared" si="13"/>
-        <v>81744.708077999996</v>
-      </c>
-      <c r="H136">
+        <v>282236.37716349267</v>
+      </c>
+      <c r="K136">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I136">
+        <v>498834.61844526709</v>
+      </c>
+      <c r="L136">
         <f t="shared" si="15"/>
-        <v>5.9472899999999997</v>
-      </c>
-      <c r="J136">
-        <f t="shared" si="10"/>
-        <v>20.525671989999999</v>
-      </c>
-      <c r="K136">
-        <f t="shared" si="11"/>
-        <v>36.241322450000006</v>
-      </c>
-      <c r="L136">
-        <f>(100 * J136) / ( J136 + K136 )</f>
-        <v>36.157757148292667</v>
+        <v>36.134535624833966</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
@@ -6337,35 +6469,35 @@
         <v>13739.8</v>
       </c>
       <c r="E137">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>13739.799999999997</v>
       </c>
       <c r="F137">
         <v>2.8466689999999999</v>
       </c>
       <c r="G137">
+        <f t="shared" si="17"/>
+        <v>39112.662726199989</v>
+      </c>
+      <c r="H137">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I137">
+        <f t="shared" si="19"/>
+        <v>39112.662726199989</v>
+      </c>
+      <c r="J137">
         <f t="shared" si="13"/>
-        <v>39112.662726199989</v>
-      </c>
-      <c r="H137">
+        <v>282236.37716349267</v>
+      </c>
+      <c r="K137">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I137">
+        <v>482248.14609976806</v>
+      </c>
+      <c r="L137">
         <f t="shared" si="15"/>
-        <v>2.8466689999999999</v>
-      </c>
-      <c r="J137">
-        <f t="shared" si="10"/>
-        <v>20.525671989999999</v>
-      </c>
-      <c r="K137">
-        <f t="shared" si="11"/>
-        <v>35.057692459999998</v>
-      </c>
-      <c r="L137">
-        <f>(100 * J137) / ( J137 + K137 )</f>
-        <v>36.927725036263077</v>
+        <v>36.918520725409202</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
@@ -6382,35 +6514,35 @@
         <v>13698.8</v>
       </c>
       <c r="E138">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>13710.766666666668</v>
       </c>
       <c r="F138">
         <v>3.3876909999999998</v>
       </c>
       <c r="G138">
+        <f t="shared" si="17"/>
+        <v>46447.840839766672</v>
+      </c>
+      <c r="H138">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I138">
+        <f t="shared" si="19"/>
+        <v>46447.840839766672</v>
+      </c>
+      <c r="J138">
         <f t="shared" si="13"/>
-        <v>46447.840839766672</v>
-      </c>
-      <c r="H138">
+        <v>282236.37716349267</v>
+      </c>
+      <c r="K138">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I138">
+        <v>492685.55039913469</v>
+      </c>
+      <c r="L138">
         <f t="shared" si="15"/>
-        <v>3.3876909999999998</v>
-      </c>
-      <c r="J138">
-        <f t="shared" si="10"/>
-        <v>20.525671989999999</v>
-      </c>
-      <c r="K138">
-        <f t="shared" si="11"/>
-        <v>35.835981959999998</v>
-      </c>
-      <c r="L138">
-        <f>(100 * J138) / ( J138 + K138 )</f>
-        <v>36.417795702391736</v>
+        <v>36.421266081760599</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
@@ -6427,35 +6559,35 @@
         <v>13672.5</v>
       </c>
       <c r="E139">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>13680.766666666668</v>
       </c>
       <c r="F139">
         <v>10.351482499999999</v>
       </c>
       <c r="G139">
+        <f t="shared" si="17"/>
+        <v>141616.21673658333</v>
+      </c>
+      <c r="H139">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I139">
+        <f t="shared" si="19"/>
+        <v>141616.21673658333</v>
+      </c>
+      <c r="J139">
         <f t="shared" si="13"/>
-        <v>141616.21673658333</v>
-      </c>
-      <c r="H139">
+        <v>282236.37716349267</v>
+      </c>
+      <c r="K139">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I139">
+        <v>574212.60376977408</v>
+      </c>
+      <c r="L139">
         <f t="shared" si="15"/>
-        <v>10.351482499999999</v>
-      </c>
-      <c r="J139">
-        <f t="shared" si="10"/>
-        <v>20.525671989999999</v>
-      </c>
-      <c r="K139">
-        <f t="shared" si="11"/>
-        <v>41.822295969999999</v>
-      </c>
-      <c r="L139">
-        <f>(100 * J139) / ( J139 + K139 )</f>
-        <v>32.921156312854436</v>
+        <v>32.954254537840839</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
@@ -6472,35 +6604,35 @@
         <v>13671</v>
       </c>
       <c r="E140">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>13671.5</v>
       </c>
       <c r="F140">
         <v>4.6857224899999999</v>
       </c>
       <c r="G140">
+        <f t="shared" si="17"/>
+        <v>64060.855022035001</v>
+      </c>
+      <c r="H140">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I140">
+        <f t="shared" si="19"/>
+        <v>64060.855022035001</v>
+      </c>
+      <c r="J140">
         <f t="shared" si="13"/>
-        <v>64060.855022035001</v>
-      </c>
-      <c r="H140">
+        <v>282236.37716349267</v>
+      </c>
+      <c r="K140">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I140">
+        <v>611363.91040044231</v>
+      </c>
+      <c r="L140">
         <f t="shared" si="15"/>
-        <v>4.6857224899999999</v>
-      </c>
-      <c r="J140">
-        <f t="shared" si="10"/>
-        <v>20.525671989999999</v>
-      </c>
-      <c r="K140">
-        <f t="shared" si="11"/>
-        <v>44.551107459999997</v>
-      </c>
-      <c r="L140">
-        <f>(100 * J140) / ( J140 + K140 )</f>
-        <v>31.540700328863615</v>
+        <v>31.584186027167021</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
@@ -6517,35 +6649,35 @@
         <v>13704.6</v>
       </c>
       <c r="E141">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>13693.833333333334</v>
       </c>
       <c r="F141">
         <v>8.4869309899999994</v>
       </c>
       <c r="G141">
+        <f t="shared" si="17"/>
+        <v>116218.61848856167</v>
+      </c>
+      <c r="H141">
+        <f t="shared" si="18"/>
+        <v>116218.61848856167</v>
+      </c>
+      <c r="I141">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="J141">
         <f t="shared" si="13"/>
-        <v>116218.61848856167</v>
-      </c>
-      <c r="H141">
+        <v>337790.15541278763</v>
+      </c>
+      <c r="K141">
         <f t="shared" si="14"/>
-        <v>8.4869309899999994</v>
-      </c>
-      <c r="I141">
+        <v>611363.91040044231</v>
+      </c>
+      <c r="L141">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="J141">
-        <f t="shared" si="10"/>
-        <v>24.607299980000001</v>
-      </c>
-      <c r="K141">
-        <f t="shared" si="11"/>
-        <v>44.551107459999997</v>
-      </c>
-      <c r="L141">
-        <f>(100 * J141) / ( J141 + K141 )</f>
-        <v>35.581068001527719</v>
+        <v>35.588548538046972</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
@@ -6562,35 +6694,35 @@
         <v>13727.6</v>
       </c>
       <c r="E142">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>13723.133333333333</v>
       </c>
       <c r="F142">
         <v>8.4678210000000007</v>
       </c>
       <c r="G142">
+        <f t="shared" si="17"/>
+        <v>116205.03662580001</v>
+      </c>
+      <c r="H142">
+        <f t="shared" si="18"/>
+        <v>116205.03662580001</v>
+      </c>
+      <c r="I142">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="J142">
         <f t="shared" si="13"/>
-        <v>116205.03662580001</v>
-      </c>
-      <c r="H142">
+        <v>453995.19203858764</v>
+      </c>
+      <c r="K142">
         <f t="shared" si="14"/>
-        <v>8.4678210000000007</v>
-      </c>
-      <c r="I142">
+        <v>542895.93808770098</v>
+      </c>
+      <c r="L142">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="J142">
-        <f t="shared" si="10"/>
-        <v>33.075120980000001</v>
-      </c>
-      <c r="K142">
-        <f t="shared" si="11"/>
-        <v>39.577357969999994</v>
-      </c>
-      <c r="L142">
-        <f>(100 * J142) / ( J142 + K142 )</f>
-        <v>45.5251100279215</v>
+        <v>45.541100559403553</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
@@ -6607,35 +6739,35 @@
         <v>13693.3</v>
       </c>
       <c r="E143">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>13705.466666666665</v>
       </c>
       <c r="F143">
         <v>10.1176145</v>
       </c>
       <c r="G143">
+        <f t="shared" si="17"/>
+        <v>138666.62827593333</v>
+      </c>
+      <c r="H143">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I143">
+        <f t="shared" si="19"/>
+        <v>138666.62827593333</v>
+      </c>
+      <c r="J143">
         <f t="shared" si="13"/>
-        <v>138666.62827593333</v>
-      </c>
-      <c r="H143">
+        <v>453995.19203858764</v>
+      </c>
+      <c r="K143">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I143">
-        <f t="shared" si="15"/>
-        <v>10.1176145</v>
-      </c>
-      <c r="J143">
-        <f t="shared" si="10"/>
-        <v>33.075120980000001</v>
-      </c>
-      <c r="K143">
-        <f t="shared" si="11"/>
-        <v>46.321859480000001</v>
+        <v>635167.53349107807</v>
       </c>
       <c r="L143">
-        <f>(100 * J143) / ( J143 + K143 )</f>
-        <v>41.657907880593974</v>
+        <f t="shared" ref="L143:L174" si="20">(100 * J143) / ( J143 + K143 )</f>
+        <v>41.682953464810076</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
@@ -6652,35 +6784,35 @@
         <v>13673.1</v>
       </c>
       <c r="E144">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>13678.366666666667</v>
       </c>
       <c r="F144">
         <v>2.5609309900000001</v>
       </c>
       <c r="G144">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>35029.353089249671</v>
       </c>
       <c r="H144">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I144">
-        <f t="shared" si="15"/>
-        <v>2.5609309900000001</v>
+        <f t="shared" si="19"/>
+        <v>35029.353089249671</v>
       </c>
       <c r="J144">
-        <f t="shared" ref="J144:J200" si="16">SUM(H131:H144)</f>
-        <v>33.075120980000001</v>
+        <f t="shared" ref="J144:J200" si="21">SUM(H131:H144)</f>
+        <v>453995.19203858764</v>
       </c>
       <c r="K144">
-        <f t="shared" ref="K144:K200" si="17">SUM(I131:I144)</f>
-        <v>46.132455970000002</v>
+        <f t="shared" ref="K144:K200" si="22">SUM(I131:I144)</f>
+        <v>632457.89670512767</v>
       </c>
       <c r="L144">
-        <f>(100 * J144) / ( J144 + K144 )</f>
-        <v>41.757521506911843</v>
+        <f t="shared" si="20"/>
+        <v>41.786911624831426</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
@@ -6697,35 +6829,35 @@
         <v>13695.4</v>
       </c>
       <c r="E145">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>13696.333333333334</v>
       </c>
       <c r="F145">
         <v>4.8388904999999998</v>
       </c>
       <c r="G145">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>66275.057251499995</v>
       </c>
       <c r="H145">
-        <f t="shared" si="14"/>
-        <v>4.8388904999999998</v>
+        <f t="shared" si="18"/>
+        <v>66275.057251499995</v>
       </c>
       <c r="I145">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J145">
-        <f t="shared" si="16"/>
-        <v>37.914011479999999</v>
+        <f t="shared" si="21"/>
+        <v>520270.24929008761</v>
       </c>
       <c r="K145">
-        <f t="shared" si="17"/>
-        <v>44.994362970000005</v>
+        <f t="shared" si="22"/>
+        <v>616858.51119132759</v>
       </c>
       <c r="L145">
-        <f>(100 * J145) / ( J145 + K145 )</f>
-        <v>45.730014285667856</v>
+        <f t="shared" si="20"/>
+        <v>45.752976036752933</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
@@ -6742,35 +6874,35 @@
         <v>13747.5</v>
       </c>
       <c r="E146">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>13730.133333333333</v>
       </c>
       <c r="F146">
         <v>7.3842295</v>
       </c>
       <c r="G146">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>101386.45559893333</v>
       </c>
       <c r="H146">
-        <f t="shared" si="14"/>
-        <v>7.3842295</v>
+        <f t="shared" si="18"/>
+        <v>101386.45559893333</v>
       </c>
       <c r="I146">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J146">
-        <f t="shared" si="16"/>
-        <v>40.698396989999992</v>
+        <f t="shared" si="21"/>
+        <v>558581.80416054488</v>
       </c>
       <c r="K146">
-        <f t="shared" si="17"/>
-        <v>44.994362970000005</v>
+        <f t="shared" si="22"/>
+        <v>616858.51119132759</v>
       </c>
       <c r="L146">
-        <f>(100 * J146) / ( J146 + K146 )</f>
-        <v>47.493390350593621</v>
+        <f t="shared" si="20"/>
+        <v>47.521069072174143</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
@@ -6787,35 +6919,35 @@
         <v>13701.7</v>
       </c>
       <c r="E147">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>13711.433333333334</v>
       </c>
       <c r="F147">
         <v>7.9742875</v>
       </c>
       <c r="G147">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>109338.91143708334</v>
       </c>
       <c r="H147">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I147">
-        <f t="shared" si="15"/>
-        <v>7.9742875</v>
+        <f t="shared" si="19"/>
+        <v>109338.91143708334</v>
       </c>
       <c r="J147">
-        <f t="shared" si="16"/>
-        <v>34.195529489999998</v>
+        <f t="shared" si="21"/>
+        <v>469211.59553454496</v>
       </c>
       <c r="K147">
-        <f t="shared" si="17"/>
-        <v>52.968650470000007</v>
+        <f t="shared" si="22"/>
+        <v>726197.42262841098</v>
       </c>
       <c r="L147">
-        <f>(100 * J147) / ( J147 + K147 )</f>
-        <v>39.231172146278965</v>
+        <f t="shared" si="20"/>
+        <v>39.251133997266102</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
@@ -6832,35 +6964,35 @@
         <v>13726.1</v>
       </c>
       <c r="E148">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>13719.733333333332</v>
       </c>
       <c r="F148">
         <v>6.2066534999999998</v>
       </c>
       <c r="G148">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>85153.630912399982</v>
       </c>
       <c r="H148">
-        <f t="shared" si="14"/>
-        <v>6.2066534999999998</v>
+        <f t="shared" si="18"/>
+        <v>85153.630912399982</v>
       </c>
       <c r="I148">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J148">
-        <f t="shared" si="16"/>
-        <v>35.384525489999994</v>
+        <f t="shared" si="21"/>
+        <v>485238.79887719493</v>
       </c>
       <c r="K148">
-        <f t="shared" si="17"/>
-        <v>52.968650470000007</v>
+        <f t="shared" si="22"/>
+        <v>726197.42262841098</v>
       </c>
       <c r="L148">
-        <f>(100 * J148) / ( J148 + K148 )</f>
-        <v>40.048957047134991</v>
+        <f t="shared" si="20"/>
+        <v>40.054836586785143</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
@@ -6877,35 +7009,35 @@
         <v>13747.4</v>
       </c>
       <c r="E149">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>13735.933333333334</v>
       </c>
       <c r="F149">
         <v>5.2416944900000004</v>
       </c>
       <c r="G149">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>71999.566068340675</v>
       </c>
       <c r="H149">
-        <f t="shared" si="14"/>
-        <v>5.2416944900000004</v>
+        <f t="shared" si="18"/>
+        <v>71999.566068340675</v>
       </c>
       <c r="I149">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J149">
-        <f t="shared" si="16"/>
-        <v>40.626219979999995</v>
+        <f t="shared" si="21"/>
+        <v>557238.36494553555</v>
       </c>
       <c r="K149">
-        <f t="shared" si="17"/>
-        <v>47.871687980000004</v>
+        <f t="shared" si="22"/>
+        <v>656017.17620485136</v>
       </c>
       <c r="L149">
-        <f>(100 * J149) / ( J149 + K149 )</f>
-        <v>45.906418486595825</v>
+        <f t="shared" si="20"/>
+        <v>45.929183592862245</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
@@ -6922,35 +7054,35 @@
         <v>13723.3</v>
       </c>
       <c r="E150">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>13732.966666666665</v>
       </c>
       <c r="F150">
         <v>4.8246939900000001</v>
       </c>
       <c r="G150">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>66257.361741536995</v>
       </c>
       <c r="H150">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I150">
-        <f t="shared" si="15"/>
-        <v>4.8246939900000001</v>
+        <f t="shared" si="19"/>
+        <v>66257.361741536995</v>
       </c>
       <c r="J150">
-        <f t="shared" si="16"/>
-        <v>40.626219979999995</v>
+        <f t="shared" si="21"/>
+        <v>557238.36494553555</v>
       </c>
       <c r="K150">
-        <f t="shared" si="17"/>
-        <v>46.749091970000002</v>
+        <f t="shared" si="22"/>
+        <v>640529.82986838836</v>
       </c>
       <c r="L150">
-        <f>(100 * J150) / ( J150 + K150 )</f>
-        <v>46.49622310161034</v>
+        <f t="shared" si="20"/>
+        <v>46.523055743027456</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
@@ -6967,35 +7099,35 @@
         <v>13781.6</v>
       </c>
       <c r="E151">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>13762.766666666665</v>
       </c>
       <c r="F151">
         <v>5.9853610000000002</v>
       </c>
       <c r="G151">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>82375.126858766656</v>
       </c>
       <c r="H151">
-        <f t="shared" si="14"/>
-        <v>5.9853610000000002</v>
+        <f t="shared" si="18"/>
+        <v>82375.126858766656</v>
       </c>
       <c r="I151">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J151">
-        <f t="shared" si="16"/>
-        <v>46.611580979999992</v>
+        <f t="shared" si="21"/>
+        <v>639613.4918043022</v>
       </c>
       <c r="K151">
-        <f t="shared" si="17"/>
-        <v>43.902422969999996</v>
+        <f t="shared" si="22"/>
+        <v>601417.16714218841</v>
       </c>
       <c r="L151">
-        <f>(100 * J151) / ( J151 + K151 )</f>
-        <v>51.496540806821741</v>
+        <f t="shared" si="20"/>
+        <v>51.5388952878303</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
@@ -7012,35 +7144,35 @@
         <v>13796.9</v>
       </c>
       <c r="E152">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>13792.466666666667</v>
       </c>
       <c r="F152">
         <v>5.454682</v>
       </c>
       <c r="G152">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>75233.51966226667</v>
       </c>
       <c r="H152">
-        <f t="shared" si="14"/>
-        <v>5.454682</v>
+        <f t="shared" si="18"/>
+        <v>75233.51966226667</v>
       </c>
       <c r="I152">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J152">
-        <f t="shared" si="16"/>
-        <v>52.066262979999991</v>
+        <f t="shared" si="21"/>
+        <v>714847.01146656892</v>
       </c>
       <c r="K152">
-        <f t="shared" si="17"/>
-        <v>40.51473197</v>
+        <f t="shared" si="22"/>
+        <v>554969.32630242174</v>
       </c>
       <c r="L152">
-        <f>(100 * J152) / ( J152 + K152 )</f>
-        <v>56.238608159395241</v>
+        <f t="shared" si="20"/>
+        <v>56.295307455448437</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
@@ -7057,35 +7189,35 @@
         <v>13796.9</v>
       </c>
       <c r="E153">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>13796.9</v>
       </c>
       <c r="F153">
         <v>3.9578414899999999</v>
       </c>
       <c r="G153">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>54605.943253380996</v>
       </c>
       <c r="H153">
-        <f t="shared" si="14"/>
-        <v>3.9578414899999999</v>
+        <f t="shared" si="18"/>
+        <v>54605.943253380996</v>
       </c>
       <c r="I153">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J153">
-        <f t="shared" si="16"/>
-        <v>56.02410446999999</v>
+        <f t="shared" si="21"/>
+        <v>769452.95471994986</v>
       </c>
       <c r="K153">
-        <f t="shared" si="17"/>
-        <v>30.16324947</v>
+        <f t="shared" si="22"/>
+        <v>413353.10956583836</v>
       </c>
       <c r="L153">
-        <f>(100 * J153) / ( J153 + K153 )</f>
-        <v>65.002696925817702</v>
+        <f t="shared" si="20"/>
+        <v>65.053179718398496</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
@@ -7102,35 +7234,35 @@
         <v>13783.3</v>
       </c>
       <c r="E154">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>13796.366666666667</v>
       </c>
       <c r="F154">
         <v>5.6480505000000001</v>
       </c>
       <c r="G154">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>77922.575649849998</v>
       </c>
       <c r="H154">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I154">
-        <f t="shared" si="15"/>
-        <v>5.6480505000000001</v>
+        <f t="shared" si="19"/>
+        <v>77922.575649849998</v>
       </c>
       <c r="J154">
-        <f t="shared" si="16"/>
-        <v>56.02410446999999</v>
+        <f t="shared" si="21"/>
+        <v>769452.95471994986</v>
       </c>
       <c r="K154">
-        <f t="shared" si="17"/>
-        <v>31.12557748</v>
+        <f t="shared" si="22"/>
+        <v>427214.83019365335</v>
       </c>
       <c r="L154">
-        <f>(100 * J154) / ( J154 + K154 )</f>
-        <v>64.284921317489676</v>
+        <f t="shared" si="20"/>
+        <v>64.29962972350782</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
@@ -7147,35 +7279,35 @@
         <v>13727.6</v>
       </c>
       <c r="E155">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>13744.833333333334</v>
       </c>
       <c r="F155">
         <v>8.0699809899999995</v>
       </c>
       <c r="G155">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>110920.54371071832</v>
       </c>
       <c r="H155">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I155">
-        <f t="shared" si="15"/>
-        <v>8.0699809899999995</v>
+        <f t="shared" si="19"/>
+        <v>110920.54371071832</v>
       </c>
       <c r="J155">
-        <f t="shared" si="16"/>
-        <v>47.53717348</v>
+        <f t="shared" si="21"/>
+        <v>653234.33623138827</v>
       </c>
       <c r="K155">
-        <f t="shared" si="17"/>
-        <v>39.195558470000002</v>
+        <f t="shared" si="22"/>
+        <v>538135.37390437163</v>
       </c>
       <c r="L155">
-        <f>(100 * J155) / ( J155 + K155 )</f>
-        <v>54.808804486182218</v>
+        <f t="shared" si="20"/>
+        <v>54.830530831352974</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
@@ -7192,35 +7324,35 @@
         <v>13739.1</v>
       </c>
       <c r="E156">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>13737.1</v>
       </c>
       <c r="F156">
         <v>7.5110669999999997</v>
       </c>
       <c r="G156">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>103180.27848569999</v>
       </c>
       <c r="H156">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I156">
-        <f t="shared" si="15"/>
-        <v>7.5110669999999997</v>
+        <f t="shared" si="19"/>
+        <v>103180.27848569999</v>
       </c>
       <c r="J156">
-        <f t="shared" si="16"/>
-        <v>39.069352479999999</v>
+        <f t="shared" si="21"/>
+        <v>537029.29960558831</v>
       </c>
       <c r="K156">
-        <f t="shared" si="17"/>
-        <v>46.706625469999999</v>
+        <f t="shared" si="22"/>
+        <v>641315.65239007166</v>
       </c>
       <c r="L156">
-        <f>(100 * J156) / ( J156 + K156 )</f>
-        <v>45.54812829155275</v>
+        <f t="shared" si="20"/>
+        <v>45.574880148301958</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
@@ -7237,35 +7369,35 @@
         <v>13720.4</v>
       </c>
       <c r="E157">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>13731.966666666667</v>
       </c>
       <c r="F157">
         <v>3.5905369999999999</v>
       </c>
       <c r="G157">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>49305.134399433337</v>
       </c>
       <c r="H157">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I157">
-        <f t="shared" si="15"/>
-        <v>3.5905369999999999</v>
+        <f t="shared" si="19"/>
+        <v>49305.134399433337</v>
       </c>
       <c r="J157">
-        <f t="shared" si="16"/>
-        <v>39.069352479999999</v>
+        <f t="shared" si="21"/>
+        <v>537029.29960558831</v>
       </c>
       <c r="K157">
-        <f t="shared" si="17"/>
-        <v>40.179547969999994</v>
+        <f t="shared" si="22"/>
+        <v>551954.15851357172</v>
       </c>
       <c r="L157">
-        <f>(100 * J157) / ( J157 + K157 )</f>
-        <v>49.299551486710882</v>
+        <f t="shared" si="20"/>
+        <v>49.314734360898335</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
@@ -7282,35 +7414,35 @@
         <v>13714.5</v>
       </c>
       <c r="E158">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>13714.4</v>
       </c>
       <c r="F158">
         <v>10.84312049</v>
       </c>
       <c r="G158">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>148706.89164805601</v>
       </c>
       <c r="H158">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I158">
-        <f t="shared" si="15"/>
-        <v>10.84312049</v>
+        <f t="shared" si="19"/>
+        <v>148706.89164805601</v>
       </c>
       <c r="J158">
-        <f t="shared" si="16"/>
-        <v>39.069352479999999</v>
+        <f t="shared" si="21"/>
+        <v>537029.29960558831</v>
       </c>
       <c r="K158">
-        <f t="shared" si="17"/>
-        <v>48.461737469999989</v>
+        <f t="shared" si="22"/>
+        <v>665631.69707237801</v>
       </c>
       <c r="L158">
-        <f>(100 * J158) / ( J158 + K158 )</f>
-        <v>44.634829181628398</v>
+        <f t="shared" si="20"/>
+        <v>44.653422792373746</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
@@ -7327,35 +7459,35 @@
         <v>13696.3</v>
       </c>
       <c r="E159">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>13701.6</v>
       </c>
       <c r="F159">
         <v>4.0778049999999997</v>
       </c>
       <c r="G159">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>55872.452987999997</v>
       </c>
       <c r="H159">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I159">
-        <f t="shared" si="15"/>
-        <v>4.0778049999999997</v>
+        <f t="shared" si="19"/>
+        <v>55872.452987999997</v>
       </c>
       <c r="J159">
-        <f t="shared" si="16"/>
-        <v>34.230461980000001</v>
+        <f t="shared" si="21"/>
+        <v>470754.24235408829</v>
       </c>
       <c r="K159">
-        <f t="shared" si="17"/>
-        <v>52.539542469999986</v>
+        <f t="shared" si="22"/>
+        <v>721504.15006037802</v>
       </c>
       <c r="L159">
-        <f>(100 * J159) / ( J159 + K159 )</f>
-        <v>39.449648754743151</v>
+        <f t="shared" si="20"/>
+        <v>39.484246481230841</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
@@ -7372,35 +7504,35 @@
         <v>13747.1</v>
       </c>
       <c r="E160">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>13730.166666666666</v>
       </c>
       <c r="F160">
         <v>13.635051000000001</v>
       </c>
       <c r="G160">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>187211.5227385</v>
       </c>
       <c r="H160">
-        <f t="shared" si="14"/>
-        <v>13.635051000000001</v>
+        <f t="shared" si="18"/>
+        <v>187211.5227385</v>
       </c>
       <c r="I160">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J160">
-        <f t="shared" si="16"/>
-        <v>40.481283480000002</v>
+        <f t="shared" si="21"/>
+        <v>556579.30949365499</v>
       </c>
       <c r="K160">
-        <f t="shared" si="17"/>
-        <v>52.539542469999986</v>
+        <f t="shared" si="22"/>
+        <v>721504.15006037802</v>
       </c>
       <c r="L160">
-        <f>(100 * J160) / ( J160 + K160 )</f>
-        <v>43.518516489801179</v>
+        <f t="shared" si="20"/>
+        <v>43.547962797974442</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.25">
@@ -7417,35 +7549,35 @@
         <v>13776.9</v>
       </c>
       <c r="E161">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>13766.966666666667</v>
       </c>
       <c r="F161">
         <v>3.8948575000000001</v>
       </c>
       <c r="G161">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>53620.373373916671</v>
       </c>
       <c r="H161">
-        <f t="shared" si="14"/>
-        <v>3.8948575000000001</v>
+        <f t="shared" si="18"/>
+        <v>53620.373373916671</v>
       </c>
       <c r="I161">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J161">
-        <f t="shared" si="16"/>
-        <v>44.376140980000002</v>
+        <f t="shared" si="21"/>
+        <v>610199.68286757171</v>
       </c>
       <c r="K161">
-        <f t="shared" si="17"/>
-        <v>44.565254969999998</v>
+        <f t="shared" si="22"/>
+        <v>612165.23862329475</v>
       </c>
       <c r="L161">
-        <f>(100 * J161) / ( J161 + K161 )</f>
-        <v>49.893686180669846</v>
+        <f t="shared" si="20"/>
+        <v>49.91960028788597</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
@@ -7462,35 +7594,35 @@
         <v>13783.7</v>
       </c>
       <c r="E162">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>13792.233333333332</v>
       </c>
       <c r="F162">
         <v>4.9229114999999997</v>
       </c>
       <c r="G162">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>67897.944087349984</v>
       </c>
       <c r="H162">
-        <f t="shared" si="14"/>
-        <v>4.9229114999999997</v>
+        <f t="shared" si="18"/>
+        <v>67897.944087349984</v>
       </c>
       <c r="I162">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J162">
-        <f t="shared" si="16"/>
-        <v>43.092398979999999</v>
+        <f t="shared" si="21"/>
+        <v>592943.99604252167</v>
       </c>
       <c r="K162">
-        <f t="shared" si="17"/>
-        <v>44.565254969999998</v>
+        <f t="shared" si="22"/>
+        <v>612165.23862329475</v>
       </c>
       <c r="L162">
-        <f>(100 * J162) / ( J162 + K162 )</f>
-        <v>49.159881696788212</v>
+        <f t="shared" si="20"/>
+        <v>49.202510360560666</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.25">
@@ -7507,35 +7639,35 @@
         <v>13763.1</v>
       </c>
       <c r="E163">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>13769.433333333334</v>
       </c>
       <c r="F163">
         <v>4.2794065000000003</v>
       </c>
       <c r="G163">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>58925.002507983343</v>
       </c>
       <c r="H163">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I163">
-        <f t="shared" si="15"/>
-        <v>4.2794065000000003</v>
+        <f t="shared" si="19"/>
+        <v>58925.002507983343</v>
       </c>
       <c r="J163">
-        <f t="shared" si="16"/>
-        <v>37.850704489999998</v>
+        <f t="shared" si="21"/>
+        <v>520944.429974181</v>
       </c>
       <c r="K163">
-        <f t="shared" si="17"/>
-        <v>48.844661469999998</v>
+        <f t="shared" si="22"/>
+        <v>671090.2411312781</v>
       </c>
       <c r="L163">
-        <f>(100 * J163) / ( J163 + K163 )</f>
-        <v>43.659432163264377</v>
+        <f t="shared" si="20"/>
+        <v>43.702120634718781</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.25">
@@ -7552,35 +7684,35 @@
         <v>13756.1</v>
       </c>
       <c r="E164">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>13757.9</v>
       </c>
       <c r="F164">
         <v>3.7701384999999998</v>
       </c>
       <c r="G164">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>51869.188469149994</v>
       </c>
       <c r="H164">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I164">
-        <f t="shared" si="15"/>
-        <v>3.7701384999999998</v>
+        <f t="shared" si="19"/>
+        <v>51869.188469149994</v>
       </c>
       <c r="J164">
-        <f t="shared" si="16"/>
-        <v>37.850704489999998</v>
+        <f t="shared" si="21"/>
+        <v>520944.429974181</v>
       </c>
       <c r="K164">
-        <f t="shared" si="17"/>
-        <v>47.79010598</v>
+        <f t="shared" si="22"/>
+        <v>656702.06785889098</v>
       </c>
       <c r="L164">
-        <f>(100 * J164) / ( J164 + K164 )</f>
-        <v>44.197041436522973</v>
+        <f t="shared" si="20"/>
+        <v>44.236061579832707</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.25">
@@ -7597,35 +7729,35 @@
         <v>13739.7</v>
       </c>
       <c r="E165">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>13745.166666666666</v>
       </c>
       <c r="F165">
         <v>5.0796989899999998</v>
       </c>
       <c r="G165">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>69821.309234048327</v>
       </c>
       <c r="H165">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I165">
-        <f t="shared" si="15"/>
-        <v>5.0796989899999998</v>
+        <f t="shared" si="19"/>
+        <v>69821.309234048327</v>
       </c>
       <c r="J165">
-        <f t="shared" si="16"/>
-        <v>31.865343490000001</v>
+        <f t="shared" si="21"/>
+        <v>438569.30311541434</v>
       </c>
       <c r="K165">
-        <f t="shared" si="17"/>
-        <v>52.869804969999997</v>
+        <f t="shared" si="22"/>
+        <v>726523.37709293934</v>
       </c>
       <c r="L165">
-        <f>(100 * J165) / ( J165 + K165 )</f>
-        <v>37.605815377832641</v>
+        <f t="shared" si="20"/>
+        <v>37.642439143724161</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
@@ -7642,35 +7774,35 @@
         <v>13747.2</v>
       </c>
       <c r="E166">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>13744.700000000003</v>
       </c>
       <c r="F166">
         <v>4.3910945000000003</v>
       </c>
       <c r="G166">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>60354.276574150019</v>
       </c>
       <c r="H166">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I166">
-        <f t="shared" si="15"/>
-        <v>4.3910945000000003</v>
+        <f t="shared" si="19"/>
+        <v>60354.276574150019</v>
       </c>
       <c r="J166">
-        <f t="shared" si="16"/>
-        <v>26.410661490000003</v>
+        <f t="shared" si="21"/>
+        <v>363335.78345314768</v>
       </c>
       <c r="K166">
-        <f t="shared" si="17"/>
-        <v>57.260899469999998</v>
+        <f t="shared" si="22"/>
+        <v>786877.6536670893</v>
       </c>
       <c r="L166">
-        <f>(100 * J166) / ( J166 + K166 )</f>
-        <v>31.564681221407923</v>
+        <f t="shared" si="20"/>
+        <v>31.588553196076653</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
@@ -7687,35 +7819,35 @@
         <v>13766.8</v>
       </c>
       <c r="E167">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>13760.266666666668</v>
       </c>
       <c r="F167">
         <v>3.3119835000000002</v>
       </c>
       <c r="G167">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>45573.776155600011</v>
       </c>
       <c r="H167">
-        <f t="shared" si="14"/>
-        <v>3.3119835000000002</v>
+        <f t="shared" si="18"/>
+        <v>45573.776155600011</v>
       </c>
       <c r="I167">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J167">
-        <f t="shared" si="16"/>
-        <v>25.764803500000003</v>
+        <f t="shared" si="21"/>
+        <v>354303.61635536671</v>
       </c>
       <c r="K167">
-        <f t="shared" si="17"/>
-        <v>57.260899469999998</v>
+        <f t="shared" si="22"/>
+        <v>786877.6536670893</v>
       </c>
       <c r="L167">
-        <f>(100 * J167) / ( J167 + K167 )</f>
-        <v>31.032322013954762</v>
+        <f t="shared" si="20"/>
+        <v>31.047093539170579</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
@@ -7732,35 +7864,35 @@
         <v>13784.2</v>
       </c>
       <c r="E168">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>13778.833333333334</v>
       </c>
       <c r="F168">
         <v>3.03299699</v>
       </c>
       <c r="G168">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>41791.160025711666</v>
       </c>
       <c r="H168">
-        <f t="shared" si="14"/>
-        <v>3.03299699</v>
+        <f t="shared" si="18"/>
+        <v>41791.160025711666</v>
       </c>
       <c r="I168">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J168">
-        <f t="shared" si="16"/>
-        <v>28.797800490000004</v>
+        <f t="shared" si="21"/>
+        <v>396094.77638107841</v>
       </c>
       <c r="K168">
-        <f t="shared" si="17"/>
-        <v>51.612848970000002</v>
+        <f t="shared" si="22"/>
+        <v>708955.07801723946</v>
       </c>
       <c r="L168">
-        <f>(100 * J168) / ( J168 + K168 )</f>
-        <v>35.813416112657279</v>
+        <f t="shared" si="20"/>
+        <v>35.844063940150988</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.25">
@@ -7777,35 +7909,35 @@
         <v>13785.8</v>
       </c>
       <c r="E169">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>13785.199999999999</v>
       </c>
       <c r="F169">
         <v>3.3296945</v>
       </c>
       <c r="G169">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>45900.504621399996</v>
       </c>
       <c r="H169">
-        <f t="shared" si="14"/>
-        <v>3.3296945</v>
+        <f t="shared" si="18"/>
+        <v>45900.504621399996</v>
       </c>
       <c r="I169">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J169">
-        <f t="shared" si="16"/>
-        <v>32.127494990000002</v>
+        <f t="shared" si="21"/>
+        <v>441995.28100247838</v>
       </c>
       <c r="K169">
-        <f t="shared" si="17"/>
-        <v>43.542867979999997</v>
+        <f t="shared" si="22"/>
+        <v>598034.53430652106</v>
       </c>
       <c r="L169">
-        <f>(100 * J169) / ( J169 + K169 )</f>
-        <v>42.457170454880938</v>
+        <f t="shared" si="20"/>
+        <v>42.498327884105777</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.25">
@@ -7822,35 +7954,35 @@
         <v>13794.3</v>
       </c>
       <c r="E170">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>13791.733333333332</v>
       </c>
       <c r="F170">
         <v>2.8586639900000002</v>
       </c>
       <c r="G170">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>39425.931439682667</v>
       </c>
       <c r="H170">
-        <f t="shared" si="14"/>
-        <v>2.8586639900000002</v>
+        <f t="shared" si="18"/>
+        <v>39425.931439682667</v>
       </c>
       <c r="I170">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J170">
-        <f t="shared" si="16"/>
-        <v>34.986158979999999</v>
+        <f t="shared" si="21"/>
+        <v>481421.21244216105</v>
       </c>
       <c r="K170">
-        <f t="shared" si="17"/>
-        <v>36.03180098</v>
+        <f t="shared" si="22"/>
+        <v>494854.25582082098</v>
       </c>
       <c r="L170">
-        <f>(100 * J170) / ( J170 + K170 )</f>
-        <v>49.263818616735158</v>
+        <f t="shared" si="20"/>
+        <v>49.312025969342422</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.25">
@@ -7867,35 +7999,35 @@
         <v>13782.9</v>
       </c>
       <c r="E171">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>13792.733333333332</v>
       </c>
       <c r="F171">
         <v>6.4898955000000003</v>
       </c>
       <c r="G171">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>89513.397992699989</v>
       </c>
       <c r="H171">
-        <f t="shared" si="14"/>
-        <v>6.4898955000000003</v>
+        <f t="shared" si="18"/>
+        <v>89513.397992699989</v>
       </c>
       <c r="I171">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J171">
-        <f t="shared" si="16"/>
-        <v>41.476054480000002</v>
+        <f t="shared" si="21"/>
+        <v>570934.61043486104</v>
       </c>
       <c r="K171">
-        <f t="shared" si="17"/>
-        <v>32.441263980000002</v>
+        <f t="shared" si="22"/>
+        <v>445549.12142138771</v>
       </c>
       <c r="L171">
-        <f>(100 * J171) / ( J171 + K171 )</f>
-        <v>56.11141657207785</v>
+        <f t="shared" si="20"/>
+        <v>56.167609233868454</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.25">
@@ -7912,35 +8044,35 @@
         <v>13766.8</v>
       </c>
       <c r="E172">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>13772.166666666666</v>
       </c>
       <c r="F172">
         <v>4.9160414899999996</v>
       </c>
       <c r="G172">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>67704.542740528326</v>
       </c>
       <c r="H172">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I172">
-        <f t="shared" si="15"/>
-        <v>4.9160414899999996</v>
+        <f t="shared" si="19"/>
+        <v>67704.542740528326</v>
       </c>
       <c r="J172">
-        <f t="shared" si="16"/>
-        <v>41.476054480000002</v>
+        <f t="shared" si="21"/>
+        <v>570934.61043486104</v>
       </c>
       <c r="K172">
-        <f t="shared" si="17"/>
-        <v>26.514184980000003</v>
+        <f t="shared" si="22"/>
+        <v>364546.77251386002</v>
       </c>
       <c r="L172">
-        <f>(100 * J172) / ( J172 + K172 )</f>
-        <v>61.002953967239939</v>
+        <f t="shared" si="20"/>
+        <v>61.031103434172472</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.25">
@@ -7957,35 +8089,35 @@
         <v>13790.9</v>
       </c>
       <c r="E173">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>13782.866666666667</v>
       </c>
       <c r="F173">
         <v>4.0297625000000004</v>
       </c>
       <c r="G173">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>55541.67923583334</v>
       </c>
       <c r="H173">
-        <f t="shared" si="14"/>
-        <v>4.0297625000000004</v>
+        <f t="shared" si="18"/>
+        <v>55541.67923583334</v>
       </c>
       <c r="I173">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J173">
-        <f t="shared" si="16"/>
-        <v>45.505816980000006</v>
+        <f t="shared" si="21"/>
+        <v>626476.28967069439</v>
       </c>
       <c r="K173">
-        <f t="shared" si="17"/>
-        <v>22.436379979999998</v>
+        <f t="shared" si="22"/>
+        <v>308674.31952586002</v>
       </c>
       <c r="L173">
-        <f>(100 * J173) / ( J173 + K173 )</f>
-        <v>66.977252747347734</v>
+        <f t="shared" si="20"/>
+        <v>66.992020698028398</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
@@ -8002,35 +8134,35 @@
         <v>13790.9</v>
       </c>
       <c r="E174">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>13790.9</v>
       </c>
       <c r="F174">
         <v>4.12124399</v>
       </c>
       <c r="G174">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>56835.663741691002</v>
       </c>
       <c r="H174">
-        <f t="shared" si="14"/>
-        <v>4.12124399</v>
+        <f t="shared" si="18"/>
+        <v>56835.663741691002</v>
       </c>
       <c r="I174">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J174">
-        <f t="shared" si="16"/>
-        <v>35.992009969999998</v>
+        <f t="shared" si="21"/>
+        <v>496100.43067388533</v>
       </c>
       <c r="K174">
-        <f t="shared" si="17"/>
-        <v>22.436379979999998</v>
+        <f t="shared" si="22"/>
+        <v>308674.31952586002</v>
       </c>
       <c r="L174">
-        <f>(100 * J174) / ( J174 + K174 )</f>
-        <v>61.600208393214508</v>
+        <f t="shared" si="20"/>
+        <v>61.644631687407319</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.25">
@@ -8047,35 +8179,35 @@
         <v>13791.4</v>
       </c>
       <c r="E175">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>13798.866666666667</v>
       </c>
       <c r="F175">
         <v>4.38253849</v>
       </c>
       <c r="G175">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>60474.064285044667</v>
       </c>
       <c r="H175">
-        <f t="shared" si="14"/>
-        <v>4.38253849</v>
+        <f t="shared" si="18"/>
+        <v>60474.064285044667</v>
       </c>
       <c r="I175">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J175">
-        <f t="shared" si="16"/>
-        <v>36.479690959999999</v>
+        <f t="shared" si="21"/>
+        <v>502954.12158501329</v>
       </c>
       <c r="K175">
-        <f t="shared" si="17"/>
-        <v>22.436379979999998</v>
+        <f t="shared" si="22"/>
+        <v>308674.31952586002</v>
       </c>
       <c r="L175">
-        <f>(100 * J175) / ( J175 + K175 )</f>
-        <v>61.918064762246004</v>
+        <f t="shared" ref="L175:L206" si="23">(100 * J175) / ( J175 + K175 )</f>
+        <v>61.968518611376098</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.25">
@@ -8092,35 +8224,35 @@
         <v>13813.4</v>
       </c>
       <c r="E176">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>13813.366666666667</v>
       </c>
       <c r="F176">
         <v>2.9273604899999999</v>
       </c>
       <c r="G176">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>40436.703813882996</v>
       </c>
       <c r="H176">
-        <f t="shared" si="14"/>
-        <v>2.9273604899999999</v>
+        <f t="shared" si="18"/>
+        <v>40436.703813882996</v>
       </c>
       <c r="I176">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J176">
-        <f t="shared" si="16"/>
-        <v>34.484139949999999</v>
+        <f t="shared" si="21"/>
+        <v>475492.88131154637</v>
       </c>
       <c r="K176">
-        <f t="shared" si="17"/>
-        <v>22.436379979999998</v>
+        <f t="shared" si="22"/>
+        <v>308674.31952586002</v>
       </c>
       <c r="L176">
-        <f>(100 * J176) / ( J176 + K176 )</f>
-        <v>60.582967254002732</v>
+        <f t="shared" si="23"/>
+        <v>60.636670445253387</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.25">
@@ -8137,35 +8269,35 @@
         <v>13813.4</v>
       </c>
       <c r="E177">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>13814.266666666668</v>
       </c>
       <c r="F177">
         <v>4.2373009899999996</v>
       </c>
       <c r="G177">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>58535.205822790667</v>
       </c>
       <c r="H177">
-        <f t="shared" si="14"/>
-        <v>4.2373009899999996</v>
+        <f t="shared" si="18"/>
+        <v>58535.205822790667</v>
       </c>
       <c r="I177">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J177">
-        <f t="shared" si="16"/>
-        <v>38.721440940000001</v>
+        <f t="shared" si="21"/>
+        <v>534028.08713433705</v>
       </c>
       <c r="K177">
-        <f t="shared" si="17"/>
-        <v>18.156973479999998</v>
+        <f t="shared" si="22"/>
+        <v>249749.31701787666</v>
       </c>
       <c r="L177">
-        <f>(100 * J177) / ( J177 + K177 )</f>
-        <v>68.077567447774157</v>
+        <f t="shared" si="23"/>
+        <v>68.13517260196825</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.25">
@@ -8182,35 +8314,35 @@
         <v>13813.5</v>
       </c>
       <c r="E178">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>13818</v>
       </c>
       <c r="F178">
         <v>6.56377699</v>
       </c>
       <c r="G178">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>90698.270447820003</v>
       </c>
       <c r="H178">
-        <f t="shared" si="14"/>
-        <v>6.56377699</v>
+        <f t="shared" si="18"/>
+        <v>90698.270447820003</v>
       </c>
       <c r="I178">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J178">
-        <f t="shared" si="16"/>
-        <v>45.285217930000002</v>
+        <f t="shared" si="21"/>
+        <v>624726.35758215701</v>
       </c>
       <c r="K178">
-        <f t="shared" si="17"/>
-        <v>14.38683498</v>
+        <f t="shared" si="22"/>
+        <v>197880.12854872667</v>
       </c>
       <c r="L178">
-        <f>(100 * J178) / ( J178 + K178 )</f>
-        <v>75.890162515945519</v>
+        <f t="shared" si="23"/>
+        <v>75.944740056761205</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.25">
@@ -8227,35 +8359,35 @@
         <v>13806.8</v>
       </c>
       <c r="E179">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>13812.233333333332</v>
       </c>
       <c r="F179">
         <v>13.1007245</v>
       </c>
       <c r="G179">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>180950.26362971665</v>
       </c>
       <c r="H179">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I179">
-        <f t="shared" si="15"/>
-        <v>13.1007245</v>
+        <f t="shared" si="19"/>
+        <v>180950.26362971665</v>
       </c>
       <c r="J179">
-        <f t="shared" si="16"/>
-        <v>45.285217930000002</v>
+        <f t="shared" si="21"/>
+        <v>624726.35758215701</v>
       </c>
       <c r="K179">
-        <f t="shared" si="17"/>
-        <v>22.407860489999997</v>
+        <f t="shared" si="22"/>
+        <v>309009.08294439502</v>
       </c>
       <c r="L179">
-        <f>(100 * J179) / ( J179 + K179 )</f>
-        <v>66.897855714330206</v>
+        <f t="shared" si="23"/>
+        <v>66.906141768578621</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.25">
@@ -8272,35 +8404,35 @@
         <v>13867.6</v>
       </c>
       <c r="E180">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>13849.199999999999</v>
       </c>
       <c r="F180">
         <v>22.243798989999998</v>
       </c>
       <c r="G180">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>308058.82097230793</v>
       </c>
       <c r="H180">
-        <f t="shared" si="14"/>
-        <v>22.243798989999998</v>
+        <f t="shared" si="18"/>
+        <v>308058.82097230793</v>
       </c>
       <c r="I180">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J180">
-        <f t="shared" si="16"/>
-        <v>67.529016920000004</v>
+        <f t="shared" si="21"/>
+        <v>932785.17855446495</v>
       </c>
       <c r="K180">
-        <f t="shared" si="17"/>
-        <v>18.01676599</v>
+        <f t="shared" si="22"/>
+        <v>248654.80637024497</v>
       </c>
       <c r="L180">
-        <f>(100 * J180) / ( J180 + K180 )</f>
-        <v>78.939036645494426</v>
+        <f t="shared" si="23"/>
+        <v>78.953242691706336</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.25">
@@ -8317,35 +8449,35 @@
         <v>13839.9</v>
       </c>
       <c r="E181">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>13848.966666666667</v>
       </c>
       <c r="F181">
         <v>6.5227519899999997</v>
       </c>
       <c r="G181">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>90333.374884443663</v>
       </c>
       <c r="H181">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I181">
-        <f t="shared" si="15"/>
-        <v>6.5227519899999997</v>
+        <f t="shared" si="19"/>
+        <v>90333.374884443663</v>
       </c>
       <c r="J181">
-        <f t="shared" si="16"/>
-        <v>64.217033419999993</v>
+        <f t="shared" si="21"/>
+        <v>887211.40239886497</v>
       </c>
       <c r="K181">
-        <f t="shared" si="17"/>
-        <v>24.539517979999999</v>
+        <f t="shared" si="22"/>
+        <v>338988.18125468865</v>
       </c>
       <c r="L181">
-        <f>(100 * J181) / ( J181 + K181 )</f>
-        <v>72.351879841063763</v>
+        <f t="shared" si="23"/>
+        <v>72.354567252041633</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.25">
@@ -8362,35 +8494,35 @@
         <v>13829.9</v>
       </c>
       <c r="E182">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>13833.233333333332</v>
       </c>
       <c r="F182">
         <v>1.7077549999999999</v>
       </c>
       <c r="G182">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>23623.773391166662</v>
       </c>
       <c r="H182">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I182">
-        <f t="shared" si="15"/>
-        <v>1.7077549999999999</v>
+        <f t="shared" si="19"/>
+        <v>23623.773391166662</v>
       </c>
       <c r="J182">
-        <f t="shared" si="16"/>
-        <v>61.184036430000006</v>
+        <f t="shared" si="21"/>
+        <v>845420.24237315333</v>
       </c>
       <c r="K182">
-        <f t="shared" si="17"/>
-        <v>26.247272979999998</v>
+        <f t="shared" si="22"/>
+        <v>362611.95464585529</v>
       </c>
       <c r="L182">
-        <f>(100 * J182) / ( J182 + K182 )</f>
-        <v>69.979549480477118</v>
+        <f t="shared" si="23"/>
+        <v>69.983254126781389</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.25">
@@ -8407,35 +8539,35 @@
         <v>13816.8</v>
       </c>
       <c r="E183">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>13820.1</v>
       </c>
       <c r="F183">
         <v>4.98741199</v>
       </c>
       <c r="G183">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>68926.532442999</v>
       </c>
       <c r="H183">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I183">
-        <f t="shared" si="15"/>
-        <v>4.98741199</v>
+        <f t="shared" si="19"/>
+        <v>68926.532442999</v>
       </c>
       <c r="J183">
-        <f t="shared" si="16"/>
-        <v>57.854341930000004</v>
+        <f t="shared" si="21"/>
+        <v>799519.7377517533</v>
       </c>
       <c r="K183">
-        <f t="shared" si="17"/>
-        <v>31.234684969999996</v>
+        <f t="shared" si="22"/>
+        <v>431538.48708885431</v>
       </c>
       <c r="L183">
-        <f>(100 * J183) / ( J183 + K183 )</f>
-        <v>64.939919026099503</v>
+        <f t="shared" si="23"/>
+        <v>64.945728936198122</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.25">
@@ -8452,35 +8584,35 @@
         <v>13793.4</v>
       </c>
       <c r="E184">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>13801.199999999999</v>
       </c>
       <c r="F184">
         <v>6.3482869900000001</v>
       </c>
       <c r="G184">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>87613.978406387992</v>
       </c>
       <c r="H184">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I184">
-        <f t="shared" si="15"/>
-        <v>6.3482869900000001</v>
+        <f t="shared" si="19"/>
+        <v>87613.978406387992</v>
       </c>
       <c r="J184">
-        <f t="shared" si="16"/>
-        <v>54.995677939999993</v>
+        <f t="shared" si="21"/>
+        <v>760093.80631207069</v>
       </c>
       <c r="K184">
-        <f t="shared" si="17"/>
-        <v>37.582971959999995</v>
+        <f t="shared" si="22"/>
+        <v>519152.46549524227</v>
       </c>
       <c r="L184">
-        <f>(100 * J184) / ( J184 + K184 )</f>
-        <v>59.40427733543779</v>
+        <f t="shared" si="23"/>
+        <v>59.417316513904218</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
@@ -8497,35 +8629,35 @@
         <v>13756</v>
       </c>
       <c r="E185">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>13767.566666666666</v>
       </c>
       <c r="F185">
         <v>11.7338275</v>
       </c>
       <c r="G185">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>161546.25236141667</v>
       </c>
       <c r="H185">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I185">
-        <f t="shared" si="15"/>
-        <v>11.7338275</v>
+        <f t="shared" si="19"/>
+        <v>161546.25236141667</v>
       </c>
       <c r="J185">
-        <f t="shared" si="16"/>
-        <v>48.505782440000004</v>
+        <f t="shared" si="21"/>
+        <v>670580.40831937059</v>
       </c>
       <c r="K185">
-        <f t="shared" si="17"/>
-        <v>49.316799459999999</v>
+        <f t="shared" si="22"/>
+        <v>680698.71785665897</v>
       </c>
       <c r="L185">
-        <f>(100 * J185) / ( J185 + K185 )</f>
-        <v>49.585465337221898</v>
+        <f t="shared" si="23"/>
+        <v>49.625602536837746</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.25">
@@ -8542,35 +8674,35 @@
         <v>13710.3</v>
       </c>
       <c r="E186">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>13725.533333333333</v>
       </c>
       <c r="F186">
         <v>9.6855115000000005</v>
       </c>
       <c r="G186">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>132938.81094363335</v>
       </c>
       <c r="H186">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I186">
-        <f t="shared" si="15"/>
-        <v>9.6855115000000005</v>
+        <f t="shared" si="19"/>
+        <v>132938.81094363335</v>
       </c>
       <c r="J186">
-        <f t="shared" si="16"/>
-        <v>48.505782440000004</v>
+        <f t="shared" si="21"/>
+        <v>670580.40831937059</v>
       </c>
       <c r="K186">
-        <f t="shared" si="17"/>
-        <v>54.086269470000005</v>
+        <f t="shared" si="22"/>
+        <v>745932.98605976393</v>
       </c>
       <c r="L186">
-        <f>(100 * J186) / ( J186 + K186 )</f>
-        <v>47.28025372038784</v>
+        <f t="shared" si="23"/>
+        <v>47.340209487626453</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.25">
@@ -8587,35 +8719,35 @@
         <v>13689.9</v>
       </c>
       <c r="E187">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>13693.533333333333</v>
       </c>
       <c r="F187">
         <v>8.7212304899999999</v>
       </c>
       <c r="G187">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>119424.460422498</v>
       </c>
       <c r="H187">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I187">
-        <f t="shared" si="15"/>
-        <v>8.7212304899999999</v>
+        <f t="shared" si="19"/>
+        <v>119424.460422498</v>
       </c>
       <c r="J187">
-        <f t="shared" si="16"/>
-        <v>44.47601994</v>
+        <f t="shared" si="21"/>
+        <v>615038.72908353736</v>
       </c>
       <c r="K187">
-        <f t="shared" si="17"/>
-        <v>62.807499960000001</v>
+        <f t="shared" si="22"/>
+        <v>865357.44648226188</v>
       </c>
       <c r="L187">
-        <f>(100 * J187) / ( J187 + K187 )</f>
-        <v>41.456525644811542</v>
+        <f t="shared" si="23"/>
+        <v>41.545549713979298</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.25">
@@ -8632,35 +8764,35 @@
         <v>13733.8</v>
       </c>
       <c r="E188">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>13719.166666666666</v>
       </c>
       <c r="F188">
         <v>3.0980344999999998</v>
       </c>
       <c r="G188">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>42502.451644583329</v>
       </c>
       <c r="H188">
-        <f t="shared" si="14"/>
-        <v>3.0980344999999998</v>
+        <f t="shared" si="18"/>
+        <v>42502.451644583329</v>
       </c>
       <c r="I188">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J188">
-        <f t="shared" si="16"/>
-        <v>43.452810449999994</v>
+        <f t="shared" si="21"/>
+        <v>600705.51698642969</v>
       </c>
       <c r="K188">
-        <f t="shared" si="17"/>
-        <v>62.807499960000001</v>
+        <f t="shared" si="22"/>
+        <v>865357.44648226188</v>
       </c>
       <c r="L188">
-        <f>(100 * J188) / ( J188 + K188 )</f>
-        <v>40.892794574323702</v>
+        <f t="shared" si="23"/>
+        <v>40.97405991112182</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
@@ -8677,35 +8809,35 @@
         <v>13727.1</v>
       </c>
       <c r="E189">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>13731.9</v>
       </c>
       <c r="F189">
         <v>4.8714009899999997</v>
       </c>
       <c r="G189">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>66893.591254580999</v>
       </c>
       <c r="H189">
-        <f t="shared" si="14"/>
-        <v>4.8714009899999997</v>
+        <f t="shared" si="18"/>
+        <v>66893.591254580999</v>
       </c>
       <c r="I189">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J189">
-        <f t="shared" si="16"/>
-        <v>43.941672949999997</v>
+        <f t="shared" si="21"/>
+        <v>607125.0439559659</v>
       </c>
       <c r="K189">
-        <f t="shared" si="17"/>
-        <v>62.807499960000001</v>
+        <f t="shared" si="22"/>
+        <v>865357.44648226188</v>
       </c>
       <c r="L189">
-        <f>(100 * J189) / ( J189 + K189 )</f>
-        <v>41.163478603292901</v>
+        <f t="shared" si="23"/>
+        <v>41.231393099640762</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.25">
@@ -8722,35 +8854,35 @@
         <v>13683.5</v>
       </c>
       <c r="E190">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>13695.133333333333</v>
       </c>
       <c r="F190">
         <v>6.9516010000000001</v>
       </c>
       <c r="G190">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>95203.102575133336</v>
       </c>
       <c r="H190">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I190">
-        <f t="shared" si="15"/>
-        <v>6.9516010000000001</v>
+        <f t="shared" si="19"/>
+        <v>95203.102575133336</v>
       </c>
       <c r="J190">
-        <f t="shared" si="16"/>
-        <v>41.014312459999992</v>
+        <f t="shared" si="21"/>
+        <v>566688.34014208289</v>
       </c>
       <c r="K190">
-        <f t="shared" si="17"/>
-        <v>69.759100959999998</v>
+        <f t="shared" si="22"/>
+        <v>960560.5490573952</v>
       </c>
       <c r="L190">
-        <f>(100 * J190) / ( J190 + K190 )</f>
-        <v>37.025411778630726</v>
+        <f t="shared" si="23"/>
+        <v>37.105172847047733</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.25">
@@ -8767,35 +8899,35 @@
         <v>13721.6</v>
       </c>
       <c r="E191">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>13707.833333333334</v>
       </c>
       <c r="F191">
         <v>4.9295285</v>
       </c>
       <c r="G191">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>67573.155089916676</v>
       </c>
       <c r="H191">
-        <f t="shared" si="14"/>
-        <v>4.9295285</v>
+        <f t="shared" si="18"/>
+        <v>67573.155089916676</v>
       </c>
       <c r="I191">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J191">
-        <f t="shared" si="16"/>
-        <v>41.706539969999994</v>
+        <f t="shared" si="21"/>
+        <v>575726.28940920893</v>
       </c>
       <c r="K191">
-        <f t="shared" si="17"/>
-        <v>69.759100959999998</v>
+        <f t="shared" si="22"/>
+        <v>960560.5490573952</v>
       </c>
       <c r="L191">
-        <f>(100 * J191) / ( J191 + K191 )</f>
-        <v>37.416498592774026</v>
+        <f t="shared" si="23"/>
+        <v>37.475182042427164</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.25">
@@ -8812,35 +8944,35 @@
         <v>13720.8</v>
       </c>
       <c r="E192">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>13734.533333333335</v>
       </c>
       <c r="F192">
         <v>7.0491134999999998</v>
       </c>
       <c r="G192">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>96816.284336200013</v>
       </c>
       <c r="H192">
-        <f t="shared" si="14"/>
-        <v>7.0491134999999998</v>
+        <f t="shared" si="18"/>
+        <v>96816.284336200013</v>
       </c>
       <c r="I192">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J192">
-        <f t="shared" si="16"/>
-        <v>42.191876479999998</v>
+        <f t="shared" si="21"/>
+        <v>581844.30329758895</v>
       </c>
       <c r="K192">
-        <f t="shared" si="17"/>
-        <v>69.759100959999998</v>
+        <f t="shared" si="22"/>
+        <v>960560.5490573952</v>
       </c>
       <c r="L192">
-        <f>(100 * J192) / ( J192 + K192 )</f>
-        <v>37.68781429587132</v>
+        <f t="shared" si="23"/>
+        <v>37.723189369458595</v>
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.25">
@@ -8857,35 +8989,35 @@
         <v>13729.6</v>
       </c>
       <c r="E193">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>13723.800000000001</v>
       </c>
       <c r="F193">
         <v>5.6155774899999997</v>
       </c>
       <c r="G193">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>77067.062357261995</v>
       </c>
       <c r="H193">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I193">
-        <f t="shared" si="15"/>
-        <v>5.6155774899999997</v>
+        <f t="shared" si="19"/>
+        <v>77067.062357261995</v>
       </c>
       <c r="J193">
-        <f t="shared" si="16"/>
-        <v>42.191876479999998</v>
+        <f t="shared" si="21"/>
+        <v>581844.30329758895</v>
       </c>
       <c r="K193">
-        <f t="shared" si="17"/>
-        <v>62.273953949999999</v>
+        <f t="shared" si="22"/>
+        <v>856677.34778494062</v>
       </c>
       <c r="L193">
-        <f>(100 * J193) / ( J193 + K193 )</f>
-        <v>40.388207614232051</v>
+        <f t="shared" si="23"/>
+        <v>40.447378936544617</v>
       </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.25">
@@ -8902,35 +9034,35 @@
         <v>13729.5</v>
       </c>
       <c r="E194">
-        <f t="shared" ref="E194:E200" si="18">(B194+C194+D194)/3</f>
+        <f t="shared" ref="E194:E200" si="24">(B194+C194+D194)/3</f>
         <v>13722.266666666668</v>
       </c>
       <c r="F194">
         <v>6.3730349899999998</v>
       </c>
       <c r="G194">
-        <f t="shared" ref="G194:G200" si="19">E194*F194</f>
+        <f t="shared" ref="G194:G200" si="25">E194*F194</f>
         <v>87452.485608777337</v>
       </c>
       <c r="H194">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I194">
-        <f t="shared" si="15"/>
-        <v>6.3730349899999998</v>
+        <f t="shared" si="19"/>
+        <v>87452.485608777337</v>
       </c>
       <c r="J194">
-        <f t="shared" si="16"/>
-        <v>19.948077489999999</v>
+        <f t="shared" si="21"/>
+        <v>273785.48232528102</v>
       </c>
       <c r="K194">
-        <f t="shared" si="17"/>
-        <v>68.64698894</v>
+        <f t="shared" si="22"/>
+        <v>944129.833393718</v>
       </c>
       <c r="L194">
-        <f>(100 * J194) / ( J194 + K194 )</f>
-        <v>22.516013920212146</v>
+        <f t="shared" si="23"/>
+        <v>22.479845584637477</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.25">
@@ -8947,35 +9079,35 @@
         <v>13731.3</v>
       </c>
       <c r="E195">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>13739.299999999997</v>
       </c>
       <c r="F195">
         <v>9.2367094999999999</v>
       </c>
       <c r="G195">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>126905.92283334998</v>
       </c>
       <c r="H195">
-        <f t="shared" ref="H195:H200" si="20">IF(E195&gt;E194,F195,0)</f>
-        <v>9.2367094999999999</v>
+        <f t="shared" ref="H195:H200" si="26">IF(E195&gt;E194,G195,0)</f>
+        <v>126905.92283334998</v>
       </c>
       <c r="I195">
-        <f t="shared" ref="I195:I200" si="21">IF(E195&lt;E194,F195,0)</f>
+        <f t="shared" ref="I195:I200" si="27">IF(E195&lt;E194,G195,0)</f>
         <v>0</v>
       </c>
       <c r="J195">
-        <f t="shared" si="16"/>
-        <v>29.184786989999999</v>
+        <f t="shared" si="21"/>
+        <v>400691.40515863098</v>
       </c>
       <c r="K195">
-        <f t="shared" si="17"/>
-        <v>62.124236949999997</v>
+        <f t="shared" si="22"/>
+        <v>853796.45850927441</v>
       </c>
       <c r="L195">
-        <f>(100 * J195) / ( J195 + K195 )</f>
-        <v>31.962653558948993</v>
+        <f t="shared" si="23"/>
+        <v>31.940636235975905</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.25">
@@ -8992,35 +9124,35 @@
         <v>13770.4</v>
       </c>
       <c r="E196">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>13757.066666666666</v>
       </c>
       <c r="F196">
         <v>7.2756939999999997</v>
       </c>
       <c r="G196">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>100092.20740426665</v>
       </c>
       <c r="H196">
-        <f t="shared" si="20"/>
-        <v>7.2756939999999997</v>
+        <f t="shared" si="26"/>
+        <v>100092.20740426665</v>
       </c>
       <c r="I196">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="J196">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="J196">
-        <f t="shared" si="16"/>
-        <v>36.460480990000001</v>
+        <v>500783.61256289762</v>
       </c>
       <c r="K196">
-        <f t="shared" si="17"/>
-        <v>60.416481949999991</v>
+        <f t="shared" si="22"/>
+        <v>830172.68511810771</v>
       </c>
       <c r="L196">
-        <f>(100 * J196) / ( J196 + K196 )</f>
-        <v>37.635862937385347</v>
+        <f t="shared" si="23"/>
+        <v>37.625849431377958</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.25">
@@ -9037,35 +9169,35 @@
         <v>13770.5</v>
       </c>
       <c r="E197">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>13770.466666666667</v>
       </c>
       <c r="F197">
         <v>4.206836</v>
       </c>
       <c r="G197">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>57930.094910133339</v>
       </c>
       <c r="H197">
-        <f t="shared" si="20"/>
-        <v>4.206836</v>
+        <f t="shared" si="26"/>
+        <v>57930.094910133339</v>
       </c>
       <c r="I197">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="J197">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="J197">
-        <f t="shared" si="16"/>
-        <v>40.667316990000003</v>
+        <v>558713.70747303101</v>
       </c>
       <c r="K197">
-        <f t="shared" si="17"/>
-        <v>55.429069960000007</v>
+        <f t="shared" si="22"/>
+        <v>761246.15267510875</v>
       </c>
       <c r="L197">
-        <f>(100 * J197) / ( J197 + K197 )</f>
-        <v>42.319298654963632</v>
+        <f t="shared" si="23"/>
+        <v>42.328083174463067</v>
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.25">
@@ -9082,35 +9214,35 @@
         <v>13727.9</v>
       </c>
       <c r="E198">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>13752.066666666666</v>
       </c>
       <c r="F198">
         <v>9.8495530000000002</v>
       </c>
       <c r="G198">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>135451.70949286665</v>
       </c>
       <c r="H198">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="I198">
+        <f t="shared" si="27"/>
+        <v>135451.70949286665</v>
+      </c>
+      <c r="J198">
         <f t="shared" si="21"/>
-        <v>9.8495530000000002</v>
-      </c>
-      <c r="J198">
-        <f t="shared" si="16"/>
-        <v>40.667316990000003</v>
+        <v>558713.70747303101</v>
       </c>
       <c r="K198">
-        <f t="shared" si="17"/>
-        <v>58.930335970000002</v>
+        <f t="shared" si="22"/>
+        <v>809083.88376158732</v>
       </c>
       <c r="L198">
-        <f>(100 * J198) / ( J198 + K198 )</f>
-        <v>40.831601730949068</v>
+        <f t="shared" si="23"/>
+        <v>40.847689091828123</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.25">
@@ -9127,35 +9259,35 @@
         <v>13705.1</v>
       </c>
       <c r="E199">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>13712.699999999999</v>
       </c>
       <c r="F199">
         <v>7.8490529999999996</v>
       </c>
       <c r="G199">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>107631.70907309999</v>
       </c>
       <c r="H199">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="I199">
+        <f t="shared" si="27"/>
+        <v>107631.70907309999</v>
+      </c>
+      <c r="J199">
         <f t="shared" si="21"/>
-        <v>7.8490529999999996</v>
-      </c>
-      <c r="J199">
-        <f t="shared" si="16"/>
-        <v>40.667316990000003</v>
+        <v>558713.70747303101</v>
       </c>
       <c r="K199">
-        <f t="shared" si="17"/>
-        <v>55.045561469999996</v>
+        <f t="shared" si="22"/>
+        <v>755169.34047327074</v>
       </c>
       <c r="L199">
-        <f>(100 * J199) / ( J199 + K199 )</f>
-        <v>42.488866330559219</v>
+        <f t="shared" si="23"/>
+        <v>42.523853880780536</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.25">
@@ -9172,35 +9304,35 @@
         <v>13770.5</v>
       </c>
       <c r="E200">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>13748.699999999999</v>
       </c>
       <c r="F200">
         <v>9.7511199899999994</v>
       </c>
       <c r="G200">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>134065.22340651299</v>
       </c>
       <c r="H200">
-        <f t="shared" si="20"/>
-        <v>9.7511199899999994</v>
+        <f t="shared" si="26"/>
+        <v>134065.22340651299</v>
       </c>
       <c r="I200">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="J200">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="J200">
-        <f t="shared" si="16"/>
-        <v>50.418436980000003</v>
+        <v>692778.930879544</v>
       </c>
       <c r="K200">
-        <f t="shared" si="17"/>
-        <v>45.360049969999999</v>
+        <f t="shared" si="22"/>
+        <v>622230.52952963731</v>
       </c>
       <c r="L200">
-        <f>(100 * J200) / ( J200 + K200 )</f>
-        <v>52.640669721918179</v>
+        <f t="shared" si="23"/>
+        <v>52.682429422521224</v>
       </c>
     </row>
   </sheetData>
